--- a/1537437860647_tweets_nike_201809042210.xlsx
+++ b/1537437860647_tweets_nike_201809042210.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biaku\Documents\GitHub\CD_Projeto2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manucastilla/Documents/GitHub/CD_Projeto2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9549ECC5-4B50-465A-814A-6372F046265A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26400" windowHeight="13820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -1131,7 +1130,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1152,6 +1151,17 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1211,7 +1221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1229,6 +1239,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1247,7 +1259,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1569,1603 +1581,1603 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D145" sqref="D145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="142.26953125" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" style="6" customWidth="1"/>
-    <col min="4" max="9" width="8.81640625" customWidth="1"/>
+    <col min="1" max="1" width="142.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="6" customWidth="1"/>
+    <col min="4" max="9" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C2" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C3" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C4" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C5" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C6" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C7" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C8" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C9" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C10" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C11" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
       </c>
-      <c r="C12" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C12" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
       </c>
-      <c r="C13" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C13" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
       </c>
-      <c r="C14" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C14" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
       </c>
-      <c r="C15" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C15" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
       </c>
-      <c r="C16" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C16" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
       </c>
-      <c r="C17" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C17" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
       </c>
-      <c r="C18" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C18" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
       </c>
-      <c r="C19" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C19" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
       </c>
-      <c r="C20" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="3">
         <v>1</v>
       </c>
-      <c r="C21" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="4">
         <v>0</v>
       </c>
-      <c r="C22" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
       </c>
-      <c r="C23" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="3">
         <v>1</v>
       </c>
-      <c r="C24" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="3">
         <v>1</v>
       </c>
-      <c r="C25" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="3">
         <v>1</v>
       </c>
-      <c r="C26" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>
       </c>
-      <c r="C27" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="3">
         <v>1</v>
       </c>
-      <c r="C28" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="3">
         <v>1</v>
       </c>
-      <c r="C29" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>21</v>
       </c>
       <c r="B30" s="3">
         <v>1</v>
       </c>
-      <c r="C30" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="3">
         <v>1</v>
       </c>
-      <c r="C31" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>29</v>
       </c>
       <c r="B32" s="3">
         <v>1</v>
       </c>
-      <c r="C32" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>30</v>
       </c>
       <c r="B33" s="3">
         <v>1</v>
       </c>
-      <c r="C33" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>31</v>
       </c>
       <c r="B34" s="3">
         <v>1</v>
       </c>
-      <c r="C34" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>32</v>
       </c>
       <c r="B35" s="3">
         <v>1</v>
       </c>
-      <c r="C35" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="3">
         <v>1</v>
       </c>
-      <c r="C36" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>34</v>
       </c>
       <c r="B37" s="3">
         <v>1</v>
       </c>
-      <c r="C37" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>27</v>
       </c>
       <c r="B38" s="3">
         <v>1</v>
       </c>
-      <c r="C38" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="3">
         <v>1</v>
       </c>
-      <c r="C39" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="3">
         <v>1</v>
       </c>
-      <c r="C40" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>37</v>
       </c>
       <c r="B41" s="3">
         <v>1</v>
       </c>
-      <c r="C41" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="3">
         <v>1</v>
       </c>
-      <c r="C42" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>39</v>
       </c>
       <c r="B43" s="3">
         <v>1</v>
       </c>
-      <c r="C43" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C43" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>9</v>
       </c>
       <c r="B44" s="3">
         <v>1</v>
       </c>
-      <c r="C44" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C44" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>40</v>
       </c>
       <c r="B45" s="3">
         <v>1</v>
       </c>
-      <c r="C45" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C45" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>41</v>
       </c>
       <c r="B46" s="3">
         <v>1</v>
       </c>
-      <c r="C46" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C46" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>42</v>
       </c>
       <c r="B47" s="3">
         <v>1</v>
       </c>
-      <c r="C47" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C47" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>9</v>
       </c>
       <c r="B48" s="3">
         <v>1</v>
       </c>
-      <c r="C48" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C48" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="3">
         <v>1</v>
       </c>
-      <c r="C49" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C49" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>38</v>
       </c>
       <c r="B50" s="3">
         <v>1</v>
       </c>
-      <c r="C50" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C50" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>44</v>
       </c>
       <c r="B51" s="3">
         <v>1</v>
       </c>
-      <c r="C51" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C51" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>36</v>
       </c>
       <c r="B52" s="3">
         <v>1</v>
       </c>
-      <c r="C52" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C52" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>45</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
       </c>
-      <c r="C53" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C53" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>46</v>
       </c>
       <c r="B54" s="3">
         <v>1</v>
       </c>
-      <c r="C54" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C54" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>47</v>
       </c>
       <c r="B55" s="3">
         <v>1</v>
       </c>
-      <c r="C55" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C55" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>48</v>
       </c>
       <c r="B56" s="3">
         <v>1</v>
       </c>
-      <c r="C56" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C56" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>49</v>
       </c>
       <c r="B57" s="3">
         <v>1</v>
       </c>
-      <c r="C57" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C57" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>50</v>
       </c>
       <c r="B58" s="3">
         <v>1</v>
       </c>
-      <c r="C58" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C58" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>15</v>
       </c>
       <c r="B59" s="3">
         <v>1</v>
       </c>
-      <c r="C59" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C59" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>51</v>
       </c>
       <c r="B60" s="3">
         <v>1</v>
       </c>
-      <c r="C60" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C60" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>52</v>
       </c>
       <c r="B61" s="3">
         <v>0</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C61" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="3">
         <v>1</v>
       </c>
-      <c r="C62" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C62" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>53</v>
       </c>
       <c r="B63" s="3">
         <v>1</v>
       </c>
-      <c r="C63" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C63" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>54</v>
       </c>
       <c r="B64" s="3">
         <v>1</v>
       </c>
-      <c r="C64" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C64" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>55</v>
       </c>
       <c r="B65" s="3">
         <v>1</v>
       </c>
-      <c r="C65" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C65" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>56</v>
       </c>
       <c r="B66" s="3">
         <v>1</v>
       </c>
-      <c r="C66" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C66" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>57</v>
       </c>
       <c r="B67" s="3">
         <v>1</v>
       </c>
-      <c r="C67" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C67" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>58</v>
       </c>
       <c r="B68" s="4">
         <v>1</v>
       </c>
-      <c r="C68" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C68" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>59</v>
       </c>
       <c r="B69" s="3">
         <v>1</v>
       </c>
-      <c r="C69" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C69" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>60</v>
       </c>
       <c r="B70" s="3">
         <v>1</v>
       </c>
-      <c r="C70" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C70" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>6</v>
       </c>
       <c r="B71" s="3">
         <v>1</v>
       </c>
-      <c r="C71" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C71" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>61</v>
       </c>
       <c r="B72" s="3">
         <v>1</v>
       </c>
-      <c r="C72" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C72" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>62</v>
       </c>
       <c r="B73" s="3">
         <v>1</v>
       </c>
-      <c r="C73" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C73" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>63</v>
       </c>
       <c r="B74" s="3">
         <v>1</v>
       </c>
-      <c r="C74" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C74" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>64</v>
       </c>
       <c r="B75" s="3">
         <v>1</v>
       </c>
-      <c r="C75" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C75" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>65</v>
       </c>
       <c r="B76" s="3">
         <v>1</v>
       </c>
-      <c r="C76" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C76" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>66</v>
       </c>
       <c r="B77" s="3">
         <v>1</v>
       </c>
-      <c r="C77" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C77" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>9</v>
       </c>
       <c r="B78" s="3">
         <v>1</v>
       </c>
-      <c r="C78" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C78" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>67</v>
       </c>
       <c r="B79" s="3">
         <v>1</v>
       </c>
-      <c r="C79" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C79" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>68</v>
       </c>
       <c r="B80" s="3">
         <v>1</v>
       </c>
-      <c r="C80" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C80" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>69</v>
       </c>
       <c r="B81" s="3">
         <v>1</v>
       </c>
-      <c r="C81" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C81" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>70</v>
       </c>
       <c r="B82" s="3">
         <v>1</v>
       </c>
-      <c r="C82" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C82" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>37</v>
       </c>
       <c r="B83" s="3">
         <v>1</v>
       </c>
-      <c r="C83" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C83" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>71</v>
       </c>
       <c r="B84" s="3">
         <v>1</v>
       </c>
-      <c r="C84" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C84" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>72</v>
       </c>
       <c r="B85" s="3">
         <v>1</v>
       </c>
-      <c r="C85" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C85" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>73</v>
       </c>
       <c r="B86" s="3">
         <v>1</v>
       </c>
-      <c r="C86" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C86" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>74</v>
       </c>
       <c r="B87" s="3">
         <v>1</v>
       </c>
-      <c r="C87" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C87" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>75</v>
       </c>
       <c r="B88" s="3">
         <v>1</v>
       </c>
-      <c r="C88" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C88" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>76</v>
       </c>
       <c r="B89" s="3">
         <v>1</v>
       </c>
-      <c r="C89" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C89" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>77</v>
       </c>
       <c r="B90" s="3">
         <v>1</v>
       </c>
-      <c r="C90" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C90" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>78</v>
       </c>
       <c r="B91" s="3">
         <v>1</v>
       </c>
-      <c r="C91" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C91" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>79</v>
       </c>
       <c r="B92" s="3">
         <v>1</v>
       </c>
-      <c r="C92" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C92" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>62</v>
       </c>
       <c r="B93" s="3">
         <v>1</v>
       </c>
-      <c r="C93" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C93" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>80</v>
       </c>
       <c r="B94" s="3">
         <v>1</v>
       </c>
-      <c r="C94" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C94" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>9</v>
       </c>
       <c r="B95" s="3">
         <v>1</v>
       </c>
-      <c r="C95" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C95" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>81</v>
       </c>
       <c r="B96" s="3">
         <v>1</v>
       </c>
-      <c r="C96" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C96" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>82</v>
       </c>
       <c r="B97" s="3">
         <v>1</v>
       </c>
-      <c r="C97" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C97" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>21</v>
       </c>
       <c r="B98" s="3">
         <v>1</v>
       </c>
-      <c r="C98" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C98" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>9</v>
       </c>
       <c r="B99" s="3">
         <v>1</v>
       </c>
-      <c r="C99" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C99" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>83</v>
       </c>
       <c r="B100" s="3">
         <v>1</v>
       </c>
-      <c r="C100" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C100" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>84</v>
       </c>
       <c r="B101" s="3">
         <v>1</v>
       </c>
-      <c r="C101" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C101" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>65</v>
       </c>
       <c r="B102" s="3">
         <v>1</v>
       </c>
-      <c r="C102" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C102" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>85</v>
       </c>
       <c r="B103" s="3">
         <v>1</v>
       </c>
-      <c r="C103" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C103" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>86</v>
       </c>
       <c r="B104" s="3">
         <v>1</v>
       </c>
-      <c r="C104" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C104" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>87</v>
       </c>
       <c r="B105" s="3">
         <v>1</v>
       </c>
-      <c r="C105" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C105" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>88</v>
       </c>
       <c r="B106" s="3">
         <v>1</v>
       </c>
-      <c r="C106" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C106" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>89</v>
       </c>
       <c r="B107" s="3">
         <v>1</v>
       </c>
-      <c r="C107" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C107" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>90</v>
       </c>
       <c r="B108" s="3">
         <v>1</v>
       </c>
-      <c r="C108" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C108" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>91</v>
       </c>
       <c r="B109" s="3">
         <v>1</v>
       </c>
-      <c r="C109" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C109" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>92</v>
       </c>
       <c r="B110" s="3">
         <v>1</v>
       </c>
-      <c r="C110" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C110" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>87</v>
       </c>
       <c r="B111" s="3">
         <v>1</v>
       </c>
-      <c r="C111" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C111" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>93</v>
       </c>
       <c r="B112" s="3">
         <v>1</v>
       </c>
-      <c r="C112" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C112" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>94</v>
       </c>
       <c r="B113" s="3">
         <v>1</v>
       </c>
-      <c r="C113" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C113" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>95</v>
       </c>
       <c r="B114" s="3">
         <v>1</v>
       </c>
-      <c r="C114" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C114" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>96</v>
       </c>
       <c r="B115" s="3">
         <v>1</v>
       </c>
-      <c r="C115" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C115" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>97</v>
       </c>
       <c r="B116" s="3">
         <v>1</v>
       </c>
-      <c r="C116" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C116" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>37</v>
       </c>
       <c r="B117" s="3">
         <v>1</v>
       </c>
-      <c r="C117" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C117" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>98</v>
       </c>
       <c r="B118" s="3">
         <v>0</v>
       </c>
-      <c r="C118" s="6">
+      <c r="C118" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>99</v>
       </c>
       <c r="B119" s="3">
         <v>1</v>
       </c>
-      <c r="C119" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C119" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>76</v>
       </c>
       <c r="B120" s="3">
         <v>1</v>
       </c>
-      <c r="C120" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C120" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>100</v>
       </c>
       <c r="B121" s="3">
         <v>1</v>
       </c>
-      <c r="C121" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C121" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>101</v>
       </c>
       <c r="B122" s="3">
         <v>1</v>
       </c>
-      <c r="C122" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C122" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>102</v>
       </c>
       <c r="B123" s="3">
         <v>1</v>
       </c>
-      <c r="C123" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C123" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>103</v>
       </c>
       <c r="B124" s="3">
         <v>1</v>
       </c>
-      <c r="C124" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C124" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>104</v>
       </c>
       <c r="B125" s="3">
         <v>1</v>
       </c>
-      <c r="C125" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C125" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>14</v>
       </c>
       <c r="B126" s="3">
         <v>1</v>
       </c>
-      <c r="C126" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C126" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>105</v>
       </c>
       <c r="B127" s="3">
         <v>1</v>
       </c>
-      <c r="C127" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C127" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>106</v>
       </c>
       <c r="B128" s="3">
         <v>1</v>
       </c>
-      <c r="C128" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C128" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>107</v>
       </c>
       <c r="B129" s="3">
         <v>1</v>
       </c>
-      <c r="C129" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C129" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>108</v>
       </c>
       <c r="B130" s="3">
         <v>1</v>
       </c>
-      <c r="C130" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C130" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>109</v>
       </c>
       <c r="B131" s="3">
         <v>1</v>
       </c>
-      <c r="C131" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C131" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>110</v>
       </c>
       <c r="B132" s="3">
         <v>1</v>
       </c>
-      <c r="C132" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C132" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>111</v>
       </c>
       <c r="B133" s="3">
         <v>1</v>
       </c>
-      <c r="C133" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C133" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>112</v>
       </c>
       <c r="B134" s="3">
         <v>1</v>
       </c>
-      <c r="C134" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C134" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>113</v>
       </c>
       <c r="B135" s="3">
         <v>1</v>
       </c>
-      <c r="C135" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C135" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>114</v>
       </c>
       <c r="B136" s="3">
         <v>1</v>
       </c>
-      <c r="C136" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C136" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>6</v>
       </c>
       <c r="B137" s="3">
         <v>1</v>
       </c>
-      <c r="C137" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C137" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>26</v>
       </c>
       <c r="B138" s="3">
         <v>1</v>
       </c>
-      <c r="C138" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C138" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>115</v>
       </c>
       <c r="B139" s="3">
         <v>1</v>
       </c>
-      <c r="C139" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C139" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>116</v>
       </c>
       <c r="B140" s="3">
         <v>1</v>
       </c>
-      <c r="C140" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C140" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>117</v>
       </c>
       <c r="B141" s="3">
         <v>1</v>
       </c>
-      <c r="C141" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C141" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>6</v>
       </c>
       <c r="B142" s="3">
         <v>1</v>
       </c>
-      <c r="C142" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C142" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>118</v>
       </c>
       <c r="B143" s="3">
         <v>1</v>
       </c>
-      <c r="C143" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C143" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>56</v>
       </c>
       <c r="B144" s="3">
         <v>1</v>
       </c>
-      <c r="C144" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C144" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>119</v>
       </c>
@@ -3176,7 +3188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>120</v>
       </c>
@@ -3187,7 +3199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>121</v>
       </c>
@@ -3198,7 +3210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>122</v>
       </c>
@@ -3209,7 +3221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>14</v>
       </c>
@@ -3220,7 +3232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>123</v>
       </c>
@@ -3231,7 +3243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>124</v>
       </c>
@@ -3242,7 +3254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>125</v>
       </c>
@@ -3253,7 +3265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>126</v>
       </c>
@@ -3264,7 +3276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>123</v>
       </c>
@@ -3275,7 +3287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>6</v>
       </c>
@@ -3286,7 +3298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>127</v>
       </c>
@@ -3297,7 +3309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>128</v>
       </c>
@@ -3308,7 +3320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>129</v>
       </c>
@@ -3319,7 +3331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>14</v>
       </c>
@@ -3330,7 +3342,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>21</v>
       </c>
@@ -3341,7 +3353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>130</v>
       </c>
@@ -3352,7 +3364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -3363,7 +3375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>131</v>
       </c>
@@ -3374,7 +3386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>132</v>
       </c>
@@ -3385,7 +3397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>133</v>
       </c>
@@ -3396,7 +3408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>134</v>
       </c>
@@ -3407,7 +3419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>6</v>
       </c>
@@ -3418,7 +3430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>135</v>
       </c>
@@ -3429,7 +3441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>136</v>
       </c>
@@ -3440,7 +3452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>137</v>
       </c>
@@ -3451,7 +3463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>138</v>
       </c>
@@ -3462,7 +3474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>139</v>
       </c>
@@ -3473,7 +3485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>140</v>
       </c>
@@ -3484,7 +3496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>141</v>
       </c>
@@ -3495,7 +3507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>142</v>
       </c>
@@ -3506,7 +3518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>143</v>
       </c>
@@ -3517,7 +3529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>144</v>
       </c>
@@ -3528,7 +3540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>145</v>
       </c>
@@ -3539,7 +3551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>146</v>
       </c>
@@ -3550,7 +3562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>147</v>
       </c>
@@ -3561,7 +3573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>148</v>
       </c>
@@ -3572,7 +3584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>6</v>
       </c>
@@ -3583,7 +3595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>115</v>
       </c>
@@ -3594,7 +3606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>149</v>
       </c>
@@ -3605,7 +3617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>150</v>
       </c>
@@ -3616,7 +3628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>151</v>
       </c>
@@ -3627,7 +3639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>82</v>
       </c>
@@ -3638,7 +3650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>152</v>
       </c>
@@ -3649,7 +3661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>62</v>
       </c>
@@ -3660,7 +3672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>99</v>
       </c>
@@ -3671,7 +3683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>153</v>
       </c>
@@ -3682,7 +3694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>6</v>
       </c>
@@ -3693,7 +3705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>154</v>
       </c>
@@ -3704,7 +3716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>155</v>
       </c>
@@ -3715,7 +3727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>156</v>
       </c>
@@ -3726,7 +3738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>157</v>
       </c>
@@ -3737,7 +3749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>158</v>
       </c>
@@ -3748,7 +3760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>159</v>
       </c>
@@ -3759,7 +3771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>160</v>
       </c>
@@ -3770,7 +3782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>161</v>
       </c>
@@ -3781,7 +3793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>6</v>
       </c>
@@ -3792,7 +3804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>162</v>
       </c>
@@ -3803,7 +3815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>163</v>
       </c>
@@ -3814,7 +3826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>164</v>
       </c>
@@ -3825,7 +3837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>82</v>
       </c>
@@ -3836,7 +3848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>6</v>
       </c>
@@ -3847,7 +3859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>165</v>
       </c>
@@ -3858,7 +3870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>166</v>
       </c>
@@ -3869,7 +3881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>167</v>
       </c>
@@ -3880,7 +3892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>115</v>
       </c>
@@ -3891,7 +3903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>9</v>
       </c>
@@ -3902,7 +3914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>168</v>
       </c>
@@ -3913,7 +3925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>169</v>
       </c>
@@ -3924,7 +3936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>8</v>
       </c>
@@ -3935,7 +3947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>170</v>
       </c>
@@ -3946,7 +3958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>26</v>
       </c>
@@ -3957,7 +3969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>115</v>
       </c>
@@ -3968,7 +3980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>99</v>
       </c>
@@ -3979,7 +3991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>171</v>
       </c>
@@ -3990,7 +4002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>172</v>
       </c>
@@ -4001,7 +4013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>173</v>
       </c>
@@ -4012,7 +4024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>174</v>
       </c>
@@ -4023,7 +4035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>13</v>
       </c>
@@ -4034,7 +4046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>175</v>
       </c>
@@ -4045,7 +4057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>27</v>
       </c>
@@ -4056,7 +4068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>164</v>
       </c>
@@ -4067,7 +4079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>176</v>
       </c>
@@ -4078,7 +4090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>177</v>
       </c>
@@ -4089,7 +4101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>178</v>
       </c>
@@ -4100,7 +4112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>43</v>
       </c>
@@ -4111,7 +4123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>83</v>
       </c>
@@ -4122,7 +4134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>179</v>
       </c>
@@ -4133,7 +4145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>180</v>
       </c>
@@ -4144,7 +4156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>21</v>
       </c>
@@ -4155,7 +4167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>181</v>
       </c>
@@ -4166,7 +4178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>182</v>
       </c>
@@ -4177,7 +4189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>183</v>
       </c>
@@ -4188,7 +4200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>184</v>
       </c>
@@ -4199,7 +4211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>154</v>
       </c>
@@ -4210,7 +4222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>185</v>
       </c>
@@ -4221,7 +4233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>21</v>
       </c>
@@ -4232,7 +4244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>186</v>
       </c>
@@ -4243,7 +4255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>144</v>
       </c>
@@ -4254,7 +4266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>187</v>
       </c>
@@ -4265,7 +4277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>188</v>
       </c>
@@ -4276,7 +4288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>39</v>
       </c>
@@ -4287,7 +4299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>189</v>
       </c>
@@ -4298,7 +4310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>190</v>
       </c>
@@ -4309,7 +4321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>191</v>
       </c>
@@ -4320,7 +4332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>192</v>
       </c>
@@ -4331,7 +4343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>193</v>
       </c>
@@ -4342,7 +4354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>194</v>
       </c>
@@ -4353,7 +4365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>195</v>
       </c>
@@ -4364,7 +4376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>196</v>
       </c>
@@ -4375,7 +4387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>9</v>
       </c>
@@ -4386,7 +4398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>197</v>
       </c>
@@ -4397,7 +4409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>198</v>
       </c>
@@ -4408,7 +4420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>6</v>
       </c>
@@ -4419,7 +4431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>133</v>
       </c>
@@ -4430,7 +4442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>115</v>
       </c>
@@ -4441,7 +4453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>199</v>
       </c>
@@ -4452,7 +4464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>200</v>
       </c>
@@ -4463,7 +4475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>201</v>
       </c>
@@ -4474,7 +4486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>202</v>
       </c>
@@ -4485,7 +4497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>203</v>
       </c>
@@ -4496,7 +4508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>133</v>
       </c>
@@ -4507,7 +4519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>204</v>
       </c>
@@ -4518,7 +4530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>27</v>
       </c>
@@ -4529,7 +4541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>167</v>
       </c>
@@ -4540,7 +4552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>112</v>
       </c>
@@ -4551,7 +4563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>205</v>
       </c>
@@ -4562,7 +4574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>89</v>
       </c>
@@ -4573,7 +4585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>206</v>
       </c>
@@ -4584,7 +4596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>207</v>
       </c>
@@ -4595,7 +4607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>208</v>
       </c>
@@ -4606,7 +4618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>209</v>
       </c>
@@ -4617,7 +4629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>142</v>
       </c>
@@ -4628,7 +4640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>48</v>
       </c>
@@ -4639,7 +4651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>26</v>
       </c>
@@ -4650,7 +4662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>210</v>
       </c>
@@ -4661,7 +4673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>115</v>
       </c>
@@ -4672,7 +4684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>211</v>
       </c>
@@ -4683,7 +4695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>212</v>
       </c>
@@ -4694,7 +4706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>112</v>
       </c>
@@ -4705,7 +4717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>82</v>
       </c>
@@ -4716,7 +4728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>213</v>
       </c>
@@ -4727,7 +4739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>214</v>
       </c>
@@ -4738,7 +4750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>87</v>
       </c>
@@ -4749,7 +4761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>14</v>
       </c>
@@ -4760,7 +4772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>215</v>
       </c>
@@ -4771,7 +4783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>142</v>
       </c>
@@ -4782,7 +4794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>216</v>
       </c>
@@ -4793,7 +4805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>65</v>
       </c>
@@ -4804,7 +4816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>48</v>
       </c>
@@ -4815,7 +4827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>217</v>
       </c>
@@ -4826,7 +4838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>131</v>
       </c>
@@ -4837,7 +4849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>6</v>
       </c>
@@ -4848,7 +4860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>95</v>
       </c>
@@ -4859,7 +4871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>166</v>
       </c>
@@ -4870,7 +4882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>47</v>
       </c>
@@ -4881,7 +4893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>218</v>
       </c>
@@ -4904,13 +4916,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.81640625" customWidth="1"/>
-    <col min="2" max="11" width="8.81640625" customWidth="1"/>
+    <col min="1" max="1" width="71.83203125" customWidth="1"/>
+    <col min="2" max="11" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>219</v>
       </c>
@@ -4921,7 +4933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -4932,7 +4944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>220</v>
       </c>
@@ -4943,7 +4955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -4954,7 +4966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>221</v>
       </c>
@@ -4965,7 +4977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -4976,7 +4988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -4987,7 +4999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>222</v>
       </c>
@@ -4998,7 +5010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>223</v>
       </c>
@@ -5009,7 +5021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>224</v>
       </c>
@@ -5020,7 +5032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>225</v>
       </c>
@@ -5031,7 +5043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>226</v>
       </c>
@@ -5042,7 +5054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>227</v>
       </c>
@@ -5053,7 +5065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>123</v>
       </c>
@@ -5064,7 +5076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -5075,7 +5087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>133</v>
       </c>
@@ -5086,7 +5098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>228</v>
       </c>
@@ -5097,7 +5109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -5108,7 +5120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>229</v>
       </c>
@@ -5119,7 +5131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>230</v>
       </c>
@@ -5130,7 +5142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>183</v>
       </c>
@@ -5141,7 +5153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>231</v>
       </c>
@@ -5152,7 +5164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>232</v>
       </c>
@@ -5163,7 +5175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>233</v>
       </c>
@@ -5174,7 +5186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>234</v>
       </c>
@@ -5185,7 +5197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -5196,7 +5208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>235</v>
       </c>
@@ -5207,7 +5219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>236</v>
       </c>
@@ -5218,7 +5230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -5229,7 +5241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -5240,7 +5252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>237</v>
       </c>
@@ -5251,7 +5263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>238</v>
       </c>
@@ -5262,7 +5274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>239</v>
       </c>
@@ -5273,7 +5285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>240</v>
       </c>
@@ -5284,7 +5296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>241</v>
       </c>
@@ -5295,7 +5307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>242</v>
       </c>
@@ -5306,7 +5318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -5317,7 +5329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -5328,7 +5340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>157</v>
       </c>
@@ -5339,7 +5351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>243</v>
       </c>
@@ -5350,7 +5362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>244</v>
       </c>
@@ -5361,7 +5373,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>245</v>
       </c>
@@ -5372,7 +5384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>246</v>
       </c>
@@ -5383,7 +5395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>198</v>
       </c>
@@ -5394,7 +5406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>247</v>
       </c>
@@ -5405,7 +5417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>248</v>
       </c>
@@ -5416,7 +5428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>249</v>
       </c>
@@ -5427,7 +5439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>250</v>
       </c>
@@ -5438,7 +5450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>251</v>
       </c>
@@ -5449,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -5460,7 +5472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -5471,7 +5483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>252</v>
       </c>
@@ -5482,7 +5494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>112</v>
       </c>
@@ -5493,7 +5505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>253</v>
       </c>
@@ -5504,7 +5516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>254</v>
       </c>
@@ -5515,7 +5527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>50</v>
       </c>
@@ -5526,7 +5538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -5537,7 +5549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>255</v>
       </c>
@@ -5548,7 +5560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -5559,7 +5571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>256</v>
       </c>
@@ -5570,7 +5582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -5581,7 +5593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>112</v>
       </c>
@@ -5592,7 +5604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -5603,7 +5615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>115</v>
       </c>
@@ -5614,7 +5626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>27</v>
       </c>
@@ -5625,7 +5637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>257</v>
       </c>
@@ -5636,7 +5648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>144</v>
       </c>
@@ -5647,7 +5659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>185</v>
       </c>
@@ -5658,7 +5670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>110</v>
       </c>
@@ -5669,7 +5681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>258</v>
       </c>
@@ -5680,7 +5692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>259</v>
       </c>
@@ -5691,7 +5703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>260</v>
       </c>
@@ -5702,7 +5714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>261</v>
       </c>
@@ -5713,7 +5725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>18</v>
       </c>
@@ -5724,7 +5736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>262</v>
       </c>
@@ -5735,7 +5747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>171</v>
       </c>
@@ -5746,7 +5758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>21</v>
       </c>
@@ -5757,7 +5769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>263</v>
       </c>
@@ -5768,7 +5780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>264</v>
       </c>
@@ -5779,7 +5791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>265</v>
       </c>
@@ -5790,7 +5802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>48</v>
       </c>
@@ -5801,7 +5813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>36</v>
       </c>
@@ -5812,7 +5824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>266</v>
       </c>
@@ -5823,7 +5835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>267</v>
       </c>
@@ -5834,7 +5846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>268</v>
       </c>
@@ -5845,7 +5857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>82</v>
       </c>
@@ -5856,7 +5868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>269</v>
       </c>
@@ -5867,7 +5879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>270</v>
       </c>
@@ -5878,7 +5890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>271</v>
       </c>
@@ -5889,7 +5901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>272</v>
       </c>
@@ -5900,7 +5912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>273</v>
       </c>
@@ -5911,7 +5923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>274</v>
       </c>
@@ -5922,7 +5934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>275</v>
       </c>
@@ -5933,7 +5945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>276</v>
       </c>
@@ -5944,7 +5956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>277</v>
       </c>
@@ -5955,7 +5967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>13</v>
       </c>
@@ -5966,7 +5978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>278</v>
       </c>
@@ -5977,7 +5989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>279</v>
       </c>
@@ -5988,7 +6000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>280</v>
       </c>
@@ -5999,7 +6011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>281</v>
       </c>
@@ -6010,7 +6022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>282</v>
       </c>
@@ -6021,7 +6033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>283</v>
       </c>
@@ -6032,7 +6044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>284</v>
       </c>
@@ -6043,7 +6055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>285</v>
       </c>
@@ -6054,7 +6066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>286</v>
       </c>
@@ -6065,7 +6077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>287</v>
       </c>
@@ -6076,7 +6088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>288</v>
       </c>
@@ -6087,7 +6099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>48</v>
       </c>
@@ -6098,7 +6110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>289</v>
       </c>
@@ -6109,7 +6121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>47</v>
       </c>
@@ -6120,7 +6132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>290</v>
       </c>
@@ -6131,7 +6143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>291</v>
       </c>
@@ -6142,7 +6154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>292</v>
       </c>
@@ -6153,7 +6165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>293</v>
       </c>
@@ -6164,7 +6176,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>294</v>
       </c>
@@ -6175,7 +6187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>133</v>
       </c>
@@ -6186,7 +6198,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>50</v>
       </c>
@@ -6197,7 +6209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>295</v>
       </c>
@@ -6208,7 +6220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>296</v>
       </c>
@@ -6219,7 +6231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>207</v>
       </c>
@@ -6230,7 +6242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>297</v>
       </c>
@@ -6241,7 +6253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>164</v>
       </c>
@@ -6252,7 +6264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>76</v>
       </c>
@@ -6263,7 +6275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>298</v>
       </c>
@@ -6274,7 +6286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>112</v>
       </c>
@@ -6285,7 +6297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>8</v>
       </c>
@@ -6296,7 +6308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>299</v>
       </c>
@@ -6307,7 +6319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>186</v>
       </c>
@@ -6318,7 +6330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>131</v>
       </c>
@@ -6329,7 +6341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>300</v>
       </c>
@@ -6340,7 +6352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>301</v>
       </c>
@@ -6351,7 +6363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>302</v>
       </c>
@@ -6362,7 +6374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>167</v>
       </c>
@@ -6373,7 +6385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>292</v>
       </c>
@@ -6384,7 +6396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>303</v>
       </c>
@@ -6395,7 +6407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>304</v>
       </c>
@@ -6406,7 +6418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>6</v>
       </c>
@@ -6417,7 +6429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>305</v>
       </c>
@@ -6428,7 +6440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -6439,7 +6451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>112</v>
       </c>
@@ -6450,7 +6462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>306</v>
       </c>
@@ -6461,7 +6473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>110</v>
       </c>
@@ -6472,7 +6484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>307</v>
       </c>
@@ -6483,7 +6495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>34</v>
       </c>
@@ -6494,7 +6506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>308</v>
       </c>
@@ -6505,7 +6517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>248</v>
       </c>
@@ -6516,7 +6528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>50</v>
       </c>
@@ -6527,7 +6539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>309</v>
       </c>
@@ -6538,7 +6550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>304</v>
       </c>
@@ -6549,7 +6561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>310</v>
       </c>
@@ -6560,7 +6572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>311</v>
       </c>
@@ -6571,7 +6583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>312</v>
       </c>
@@ -6582,7 +6594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>313</v>
       </c>
@@ -6593,7 +6605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>4</v>
       </c>
@@ -6604,7 +6616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>4</v>
       </c>
@@ -6615,7 +6627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>171</v>
       </c>
@@ -6626,7 +6638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>314</v>
       </c>
@@ -6637,7 +6649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>131</v>
       </c>
@@ -6648,7 +6660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>142</v>
       </c>
@@ -6659,7 +6671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>315</v>
       </c>
@@ -6670,7 +6682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>167</v>
       </c>
@@ -6681,7 +6693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>312</v>
       </c>
@@ -6692,7 +6704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>316</v>
       </c>
@@ -6703,7 +6715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>9</v>
       </c>
@@ -6714,7 +6726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>43</v>
       </c>
@@ -6725,7 +6737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>248</v>
       </c>
@@ -6736,7 +6748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>317</v>
       </c>
@@ -6747,7 +6759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>142</v>
       </c>
@@ -6758,7 +6770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>318</v>
       </c>
@@ -6769,7 +6781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>76</v>
       </c>
@@ -6780,7 +6792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>9</v>
       </c>
@@ -6791,7 +6803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>9</v>
       </c>
@@ -6802,7 +6814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>319</v>
       </c>
@@ -6813,7 +6825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>320</v>
       </c>
@@ -6824,7 +6836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>225</v>
       </c>
@@ -6835,7 +6847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>321</v>
       </c>
@@ -6846,7 +6858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>87</v>
       </c>
@@ -6857,7 +6869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>120</v>
       </c>
@@ -6868,7 +6880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>322</v>
       </c>
@@ -6879,7 +6891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>323</v>
       </c>
@@ -6890,7 +6902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>26</v>
       </c>
@@ -6901,7 +6913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>324</v>
       </c>
@@ -6912,7 +6924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>325</v>
       </c>
@@ -6923,7 +6935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>326</v>
       </c>
@@ -6934,7 +6946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>29</v>
       </c>
@@ -6945,7 +6957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>142</v>
       </c>
@@ -6956,7 +6968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>327</v>
       </c>
@@ -6967,7 +6979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>6</v>
       </c>
@@ -6978,7 +6990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>328</v>
       </c>
@@ -6989,7 +7001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>37</v>
       </c>
@@ -7000,7 +7012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>329</v>
       </c>
@@ -7011,7 +7023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>330</v>
       </c>
@@ -7022,7 +7034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>331</v>
       </c>
@@ -7033,7 +7045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>332</v>
       </c>
@@ -7044,7 +7056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>333</v>
       </c>
@@ -7055,7 +7067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>334</v>
       </c>
@@ -7066,7 +7078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>335</v>
       </c>
@@ -7077,7 +7089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>27</v>
       </c>
@@ -7088,7 +7100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>336</v>
       </c>
@@ -7099,7 +7111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>142</v>
       </c>
@@ -7110,7 +7122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>337</v>
       </c>

--- a/1537437860647_tweets_nike_201809042210.xlsx
+++ b/1537437860647_tweets_nike_201809042210.xlsx
@@ -1582,7 +1582,7 @@
   <dimension ref="A1:C301"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A142" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D145" sqref="D145"/>
+      <selection activeCell="C162" sqref="C162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3184,8 +3184,8 @@
       <c r="B145" s="3">
         <v>1</v>
       </c>
-      <c r="C145" s="7">
-        <v>2</v>
+      <c r="C145" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3195,7 +3195,7 @@
       <c r="B146" s="3">
         <v>1</v>
       </c>
-      <c r="C146" s="6">
+      <c r="C146" s="9">
         <v>4</v>
       </c>
     </row>
@@ -3206,7 +3206,7 @@
       <c r="B147" s="3">
         <v>1</v>
       </c>
-      <c r="C147" s="7">
+      <c r="C147" s="9">
         <v>2</v>
       </c>
     </row>
@@ -3217,8 +3217,8 @@
       <c r="B148" s="3">
         <v>1</v>
       </c>
-      <c r="C148" s="7">
-        <v>2</v>
+      <c r="C148" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3228,7 +3228,7 @@
       <c r="B149" s="3">
         <v>1</v>
       </c>
-      <c r="C149" s="6">
+      <c r="C149" s="9">
         <v>3</v>
       </c>
     </row>
@@ -3239,8 +3239,8 @@
       <c r="B150" s="3">
         <v>1</v>
       </c>
-      <c r="C150" s="7">
-        <v>2</v>
+      <c r="C150" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3250,8 +3250,8 @@
       <c r="B151" s="3">
         <v>1</v>
       </c>
-      <c r="C151" s="7">
-        <v>2</v>
+      <c r="C151" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3261,8 +3261,8 @@
       <c r="B152" s="3">
         <v>1</v>
       </c>
-      <c r="C152" s="7">
-        <v>2</v>
+      <c r="C152" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3272,8 +3272,8 @@
       <c r="B153" s="3">
         <v>1</v>
       </c>
-      <c r="C153" s="7">
-        <v>2</v>
+      <c r="C153" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3283,8 +3283,8 @@
       <c r="B154" s="3">
         <v>1</v>
       </c>
-      <c r="C154" s="7">
-        <v>2</v>
+      <c r="C154" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3294,7 +3294,7 @@
       <c r="B155" s="3">
         <v>1</v>
       </c>
-      <c r="C155" s="6">
+      <c r="C155" s="9">
         <v>3</v>
       </c>
     </row>
@@ -3305,7 +3305,7 @@
       <c r="B156" s="3">
         <v>1</v>
       </c>
-      <c r="C156" s="7">
+      <c r="C156" s="9">
         <v>2</v>
       </c>
     </row>
@@ -3316,8 +3316,8 @@
       <c r="B157" s="3">
         <v>1</v>
       </c>
-      <c r="C157" s="7">
-        <v>2</v>
+      <c r="C157" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3327,8 +3327,8 @@
       <c r="B158" s="3">
         <v>1</v>
       </c>
-      <c r="C158" s="7">
-        <v>2</v>
+      <c r="C158" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3338,7 +3338,7 @@
       <c r="B159" s="3">
         <v>1</v>
       </c>
-      <c r="C159" s="6">
+      <c r="C159" s="9">
         <v>3</v>
       </c>
     </row>
@@ -3349,8 +3349,8 @@
       <c r="B160" s="3">
         <v>1</v>
       </c>
-      <c r="C160" s="7">
-        <v>2</v>
+      <c r="C160" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3360,8 +3360,8 @@
       <c r="B161" s="3">
         <v>1</v>
       </c>
-      <c r="C161" s="7">
-        <v>2</v>
+      <c r="C161" s="9">
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/1537437860647_tweets_nike_201809042210.xlsx
+++ b/1537437860647_tweets_nike_201809042210.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manucastilla/Documents/GitHub/CD_Projeto2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\biaku\Documents\GitHub\CD_Projeto2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C879618E-5162-4F26-AE9E-E659FE40CBD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26400" windowHeight="13820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1150,12 +1151,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1166,25 +1161,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1221,7 +1211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1230,17 +1220,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1259,7 +1254,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1579,3330 +1574,3375 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C301"/>
+  <dimension ref="A1:C316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C162" sqref="C162"/>
+    <sheetView tabSelected="1" topLeftCell="A295" zoomScale="84" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B262" sqref="B262"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="142.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="6" customWidth="1"/>
-    <col min="4" max="9" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="142.36328125" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" customWidth="1"/>
+    <col min="3" max="3" width="6.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
       </c>
-      <c r="C12" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
       </c>
-      <c r="C13" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
       </c>
-      <c r="C14" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
       </c>
-      <c r="C15" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
       </c>
-      <c r="C16" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
       </c>
-      <c r="C17" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
       </c>
-      <c r="C18" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
       </c>
-      <c r="C19" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
       </c>
-      <c r="C20" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="3">
         <v>1</v>
       </c>
-      <c r="C21" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="11">
         <v>0</v>
       </c>
-      <c r="C22" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="3">
-        <v>1</v>
-      </c>
-      <c r="C23" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="12">
+        <v>1</v>
+      </c>
+      <c r="C23" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="3">
-        <v>1</v>
-      </c>
-      <c r="C24" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="12">
+        <v>1</v>
+      </c>
+      <c r="C24" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="3">
-        <v>1</v>
-      </c>
-      <c r="C25" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="12">
+        <v>1</v>
+      </c>
+      <c r="C25" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="3">
-        <v>1</v>
-      </c>
-      <c r="C26" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="12">
+        <v>1</v>
+      </c>
+      <c r="C26" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="3">
-        <v>1</v>
-      </c>
-      <c r="C27" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="12">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="3">
-        <v>1</v>
-      </c>
-      <c r="C28" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="12">
+        <v>1</v>
+      </c>
+      <c r="C28" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="3">
-        <v>1</v>
-      </c>
-      <c r="C29" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="12">
+        <v>1</v>
+      </c>
+      <c r="C29" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="3">
-        <v>1</v>
-      </c>
-      <c r="C30" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="12">
+        <v>1</v>
+      </c>
+      <c r="C30" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="3">
-        <v>1</v>
-      </c>
-      <c r="C31" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="12">
+        <v>1</v>
+      </c>
+      <c r="C31" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="12">
+        <v>1</v>
+      </c>
+      <c r="C32" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="3">
-        <v>1</v>
-      </c>
-      <c r="C33" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="12">
+        <v>1</v>
+      </c>
+      <c r="C33" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="3">
-        <v>1</v>
-      </c>
-      <c r="C34" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="12">
+        <v>1</v>
+      </c>
+      <c r="C34" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="3">
-        <v>1</v>
-      </c>
-      <c r="C35" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="12">
+        <v>1</v>
+      </c>
+      <c r="C35" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="3">
-        <v>1</v>
-      </c>
-      <c r="C36" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="12">
+        <v>1</v>
+      </c>
+      <c r="C36" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="3">
-        <v>1</v>
-      </c>
-      <c r="C37" s="9">
+      <c r="B37" s="12">
+        <v>1</v>
+      </c>
+      <c r="C37" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="3">
-        <v>1</v>
-      </c>
-      <c r="C38" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="12">
+        <v>1</v>
+      </c>
+      <c r="C38" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="3">
-        <v>1</v>
-      </c>
-      <c r="C39" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="12">
+        <v>1</v>
+      </c>
+      <c r="C39" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="3">
-        <v>1</v>
-      </c>
-      <c r="C40" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="12">
+        <v>1</v>
+      </c>
+      <c r="C40" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="3">
-        <v>1</v>
-      </c>
-      <c r="C41" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="12">
+        <v>1</v>
+      </c>
+      <c r="C41" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="3">
-        <v>1</v>
-      </c>
-      <c r="C42" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="12">
+        <v>1</v>
+      </c>
+      <c r="C42" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="3">
-        <v>1</v>
-      </c>
-      <c r="C43" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="12">
+        <v>1</v>
+      </c>
+      <c r="C43" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="3">
-        <v>1</v>
-      </c>
-      <c r="C44" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="12">
+        <v>1</v>
+      </c>
+      <c r="C44" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="3">
-        <v>1</v>
-      </c>
-      <c r="C45" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="12">
+        <v>1</v>
+      </c>
+      <c r="C45" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="3">
-        <v>1</v>
-      </c>
-      <c r="C46" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="12">
+        <v>1</v>
+      </c>
+      <c r="C46" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="3">
-        <v>1</v>
-      </c>
-      <c r="C47" s="9">
+      <c r="B47" s="12">
+        <v>1</v>
+      </c>
+      <c r="C47" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="3">
-        <v>1</v>
-      </c>
-      <c r="C48" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="12">
+        <v>1</v>
+      </c>
+      <c r="C48" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="3">
-        <v>1</v>
-      </c>
-      <c r="C49" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="12">
+        <v>1</v>
+      </c>
+      <c r="C49" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="3">
-        <v>1</v>
-      </c>
-      <c r="C50" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="12">
+        <v>1</v>
+      </c>
+      <c r="C50" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>44</v>
       </c>
-      <c r="B51" s="3">
-        <v>1</v>
-      </c>
-      <c r="C51" s="9">
+      <c r="B51" s="12">
+        <v>1</v>
+      </c>
+      <c r="C51" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>36</v>
       </c>
-      <c r="B52" s="3">
-        <v>1</v>
-      </c>
-      <c r="C52" s="9">
+      <c r="B52" s="12">
+        <v>1</v>
+      </c>
+      <c r="C52" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>45</v>
       </c>
-      <c r="B53" s="3">
-        <v>1</v>
-      </c>
-      <c r="C53" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="12">
+        <v>1</v>
+      </c>
+      <c r="C53" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>46</v>
       </c>
-      <c r="B54" s="3">
-        <v>1</v>
-      </c>
-      <c r="C54" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="12">
+        <v>1</v>
+      </c>
+      <c r="C54" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>47</v>
       </c>
-      <c r="B55" s="3">
-        <v>1</v>
-      </c>
-      <c r="C55" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="12">
+        <v>1</v>
+      </c>
+      <c r="C55" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="3">
-        <v>1</v>
-      </c>
-      <c r="C56" s="9">
+      <c r="B56" s="12">
+        <v>1</v>
+      </c>
+      <c r="C56" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="3">
-        <v>1</v>
-      </c>
-      <c r="C57" s="9">
+      <c r="B57" s="12">
+        <v>1</v>
+      </c>
+      <c r="C57" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>50</v>
       </c>
-      <c r="B58" s="3">
-        <v>1</v>
-      </c>
-      <c r="C58" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="12">
+        <v>1</v>
+      </c>
+      <c r="C58" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>15</v>
       </c>
-      <c r="B59" s="3">
-        <v>1</v>
-      </c>
-      <c r="C59" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="12">
+        <v>1</v>
+      </c>
+      <c r="C59" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>51</v>
       </c>
-      <c r="B60" s="3">
-        <v>1</v>
-      </c>
-      <c r="C60" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="12">
+        <v>1</v>
+      </c>
+      <c r="C60" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>52</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="12">
         <v>0</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>24</v>
       </c>
-      <c r="B62" s="3">
-        <v>1</v>
-      </c>
-      <c r="C62" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="12">
+        <v>1</v>
+      </c>
+      <c r="C62" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>53</v>
       </c>
-      <c r="B63" s="3">
-        <v>1</v>
-      </c>
-      <c r="C63" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="12">
+        <v>1</v>
+      </c>
+      <c r="C63" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>54</v>
       </c>
-      <c r="B64" s="3">
-        <v>1</v>
-      </c>
-      <c r="C64" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="12">
+        <v>1</v>
+      </c>
+      <c r="C64" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>55</v>
       </c>
-      <c r="B65" s="3">
-        <v>1</v>
-      </c>
-      <c r="C65" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="12">
+        <v>1</v>
+      </c>
+      <c r="C65" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>56</v>
       </c>
-      <c r="B66" s="3">
-        <v>1</v>
-      </c>
-      <c r="C66" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="12">
+        <v>1</v>
+      </c>
+      <c r="C66" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>57</v>
       </c>
-      <c r="B67" s="3">
-        <v>1</v>
-      </c>
-      <c r="C67" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="12">
+        <v>1</v>
+      </c>
+      <c r="C67" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>58</v>
       </c>
-      <c r="B68" s="4">
-        <v>1</v>
-      </c>
-      <c r="C68" s="9">
+      <c r="B68" s="11">
+        <v>1</v>
+      </c>
+      <c r="C68" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>59</v>
       </c>
-      <c r="B69" s="3">
-        <v>1</v>
-      </c>
-      <c r="C69" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="12">
+        <v>1</v>
+      </c>
+      <c r="C69" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>60</v>
       </c>
-      <c r="B70" s="3">
-        <v>1</v>
-      </c>
-      <c r="C70" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="12">
+        <v>1</v>
+      </c>
+      <c r="C70" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="3">
-        <v>1</v>
-      </c>
-      <c r="C71" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="12">
+        <v>1</v>
+      </c>
+      <c r="C71" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>61</v>
       </c>
-      <c r="B72" s="3">
-        <v>1</v>
-      </c>
-      <c r="C72" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="12">
+        <v>1</v>
+      </c>
+      <c r="C72" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>62</v>
       </c>
-      <c r="B73" s="3">
-        <v>1</v>
-      </c>
-      <c r="C73" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="12">
+        <v>1</v>
+      </c>
+      <c r="C73" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>63</v>
       </c>
-      <c r="B74" s="3">
-        <v>1</v>
-      </c>
-      <c r="C74" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="12">
+        <v>1</v>
+      </c>
+      <c r="C74" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>64</v>
       </c>
-      <c r="B75" s="3">
-        <v>1</v>
-      </c>
-      <c r="C75" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="12">
+        <v>1</v>
+      </c>
+      <c r="C75" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>65</v>
       </c>
-      <c r="B76" s="3">
-        <v>1</v>
-      </c>
-      <c r="C76" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="12">
+        <v>1</v>
+      </c>
+      <c r="C76" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>66</v>
       </c>
-      <c r="B77" s="3">
-        <v>1</v>
-      </c>
-      <c r="C77" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="12">
+        <v>1</v>
+      </c>
+      <c r="C77" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>9</v>
       </c>
-      <c r="B78" s="3">
-        <v>1</v>
-      </c>
-      <c r="C78" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="12">
+        <v>1</v>
+      </c>
+      <c r="C78" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>67</v>
       </c>
-      <c r="B79" s="3">
-        <v>1</v>
-      </c>
-      <c r="C79" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="12">
+        <v>1</v>
+      </c>
+      <c r="C79" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>68</v>
       </c>
-      <c r="B80" s="3">
-        <v>1</v>
-      </c>
-      <c r="C80" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="12">
+        <v>1</v>
+      </c>
+      <c r="C80" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>69</v>
       </c>
-      <c r="B81" s="3">
-        <v>1</v>
-      </c>
-      <c r="C81" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="12">
+        <v>1</v>
+      </c>
+      <c r="C81" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>70</v>
       </c>
-      <c r="B82" s="3">
-        <v>1</v>
-      </c>
-      <c r="C82" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="12">
+        <v>1</v>
+      </c>
+      <c r="C82" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>37</v>
       </c>
-      <c r="B83" s="3">
-        <v>1</v>
-      </c>
-      <c r="C83" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="12">
+        <v>1</v>
+      </c>
+      <c r="C83" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>71</v>
       </c>
-      <c r="B84" s="3">
-        <v>1</v>
-      </c>
-      <c r="C84" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="12">
+        <v>1</v>
+      </c>
+      <c r="C84" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>72</v>
       </c>
-      <c r="B85" s="3">
-        <v>1</v>
-      </c>
-      <c r="C85" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="12">
+        <v>1</v>
+      </c>
+      <c r="C85" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>73</v>
       </c>
-      <c r="B86" s="3">
-        <v>1</v>
-      </c>
-      <c r="C86" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="12">
+        <v>1</v>
+      </c>
+      <c r="C86" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>74</v>
       </c>
-      <c r="B87" s="3">
-        <v>1</v>
-      </c>
-      <c r="C87" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="12">
+        <v>1</v>
+      </c>
+      <c r="C87" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>75</v>
       </c>
-      <c r="B88" s="3">
-        <v>1</v>
-      </c>
-      <c r="C88" s="10">
+      <c r="B88" s="12">
+        <v>1</v>
+      </c>
+      <c r="C88" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>76</v>
       </c>
-      <c r="B89" s="3">
-        <v>1</v>
-      </c>
-      <c r="C89" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="12">
+        <v>1</v>
+      </c>
+      <c r="C89" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>77</v>
       </c>
-      <c r="B90" s="3">
-        <v>1</v>
-      </c>
-      <c r="C90" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="12">
+        <v>1</v>
+      </c>
+      <c r="C90" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>78</v>
       </c>
-      <c r="B91" s="3">
-        <v>1</v>
-      </c>
-      <c r="C91" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="12">
+        <v>1</v>
+      </c>
+      <c r="C91" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>79</v>
       </c>
-      <c r="B92" s="3">
-        <v>1</v>
-      </c>
-      <c r="C92" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="12">
+        <v>1</v>
+      </c>
+      <c r="C92" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>62</v>
       </c>
-      <c r="B93" s="3">
-        <v>1</v>
-      </c>
-      <c r="C93" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="12">
+        <v>1</v>
+      </c>
+      <c r="C93" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>80</v>
       </c>
-      <c r="B94" s="3">
-        <v>1</v>
-      </c>
-      <c r="C94" s="10">
+      <c r="B94" s="12">
+        <v>1</v>
+      </c>
+      <c r="C94" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>9</v>
       </c>
-      <c r="B95" s="3">
-        <v>1</v>
-      </c>
-      <c r="C95" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="12">
+        <v>1</v>
+      </c>
+      <c r="C95" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>81</v>
       </c>
-      <c r="B96" s="3">
-        <v>1</v>
-      </c>
-      <c r="C96" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="12">
+        <v>1</v>
+      </c>
+      <c r="C96" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>82</v>
       </c>
-      <c r="B97" s="3">
-        <v>1</v>
-      </c>
-      <c r="C97" s="10">
+      <c r="B97" s="12">
+        <v>1</v>
+      </c>
+      <c r="C97" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>21</v>
       </c>
-      <c r="B98" s="3">
-        <v>1</v>
-      </c>
-      <c r="C98" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="12">
+        <v>1</v>
+      </c>
+      <c r="C98" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>9</v>
       </c>
-      <c r="B99" s="3">
-        <v>1</v>
-      </c>
-      <c r="C99" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="12">
+        <v>1</v>
+      </c>
+      <c r="C99" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>83</v>
       </c>
-      <c r="B100" s="3">
-        <v>1</v>
-      </c>
-      <c r="C100" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="12">
+        <v>1</v>
+      </c>
+      <c r="C100" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>84</v>
       </c>
-      <c r="B101" s="3">
-        <v>1</v>
-      </c>
-      <c r="C101" s="10">
+      <c r="B101" s="12">
+        <v>1</v>
+      </c>
+      <c r="C101" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>65</v>
       </c>
-      <c r="B102" s="3">
-        <v>1</v>
-      </c>
-      <c r="C102" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="12">
+        <v>1</v>
+      </c>
+      <c r="C102" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>85</v>
       </c>
-      <c r="B103" s="3">
-        <v>1</v>
-      </c>
-      <c r="C103" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="12">
+        <v>1</v>
+      </c>
+      <c r="C103" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>86</v>
       </c>
-      <c r="B104" s="3">
-        <v>1</v>
-      </c>
-      <c r="C104" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="12">
+        <v>1</v>
+      </c>
+      <c r="C104" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>87</v>
       </c>
-      <c r="B105" s="3">
-        <v>1</v>
-      </c>
-      <c r="C105" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="12">
+        <v>1</v>
+      </c>
+      <c r="C105" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>88</v>
       </c>
-      <c r="B106" s="3">
-        <v>1</v>
-      </c>
-      <c r="C106" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="12">
+        <v>1</v>
+      </c>
+      <c r="C106" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>89</v>
       </c>
-      <c r="B107" s="3">
-        <v>1</v>
-      </c>
-      <c r="C107" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B107" s="12">
+        <v>1</v>
+      </c>
+      <c r="C107" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>90</v>
       </c>
-      <c r="B108" s="3">
-        <v>1</v>
-      </c>
-      <c r="C108" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="12">
+        <v>1</v>
+      </c>
+      <c r="C108" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>91</v>
       </c>
-      <c r="B109" s="3">
-        <v>1</v>
-      </c>
-      <c r="C109" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B109" s="12">
+        <v>1</v>
+      </c>
+      <c r="C109" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>92</v>
       </c>
-      <c r="B110" s="3">
-        <v>1</v>
-      </c>
-      <c r="C110" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B110" s="12">
+        <v>1</v>
+      </c>
+      <c r="C110" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>87</v>
       </c>
-      <c r="B111" s="3">
-        <v>1</v>
-      </c>
-      <c r="C111" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="12">
+        <v>1</v>
+      </c>
+      <c r="C111" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>93</v>
       </c>
-      <c r="B112" s="3">
-        <v>1</v>
-      </c>
-      <c r="C112" s="10">
+      <c r="B112" s="12">
+        <v>1</v>
+      </c>
+      <c r="C112" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>94</v>
       </c>
-      <c r="B113" s="3">
-        <v>1</v>
-      </c>
-      <c r="C113" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B113" s="12">
+        <v>1</v>
+      </c>
+      <c r="C113" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>95</v>
       </c>
-      <c r="B114" s="3">
-        <v>1</v>
-      </c>
-      <c r="C114" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B114" s="12">
+        <v>1</v>
+      </c>
+      <c r="C114" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>96</v>
       </c>
-      <c r="B115" s="3">
-        <v>1</v>
-      </c>
-      <c r="C115" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="12">
+        <v>1</v>
+      </c>
+      <c r="C115" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>97</v>
       </c>
-      <c r="B116" s="3">
-        <v>1</v>
-      </c>
-      <c r="C116" s="10">
+      <c r="B116" s="12">
+        <v>1</v>
+      </c>
+      <c r="C116" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>37</v>
       </c>
-      <c r="B117" s="3">
-        <v>1</v>
-      </c>
-      <c r="C117" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="12">
+        <v>1</v>
+      </c>
+      <c r="C117" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>98</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118" s="12">
         <v>0</v>
       </c>
-      <c r="C118" s="9">
+      <c r="C118" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>99</v>
       </c>
-      <c r="B119" s="3">
-        <v>1</v>
-      </c>
-      <c r="C119" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B119" s="12">
+        <v>1</v>
+      </c>
+      <c r="C119" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>76</v>
       </c>
-      <c r="B120" s="3">
-        <v>1</v>
-      </c>
-      <c r="C120" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B120" s="12">
+        <v>1</v>
+      </c>
+      <c r="C120" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>100</v>
       </c>
-      <c r="B121" s="3">
-        <v>1</v>
-      </c>
-      <c r="C121" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B121" s="12">
+        <v>1</v>
+      </c>
+      <c r="C121" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>101</v>
       </c>
-      <c r="B122" s="3">
-        <v>1</v>
-      </c>
-      <c r="C122" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B122" s="12">
+        <v>1</v>
+      </c>
+      <c r="C122" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>102</v>
       </c>
-      <c r="B123" s="3">
-        <v>1</v>
-      </c>
-      <c r="C123" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B123" s="12">
+        <v>1</v>
+      </c>
+      <c r="C123" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>103</v>
       </c>
-      <c r="B124" s="3">
-        <v>1</v>
-      </c>
-      <c r="C124" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B124" s="12">
+        <v>1</v>
+      </c>
+      <c r="C124" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>104</v>
       </c>
-      <c r="B125" s="3">
-        <v>1</v>
-      </c>
-      <c r="C125" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B125" s="12">
+        <v>1</v>
+      </c>
+      <c r="C125" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>14</v>
       </c>
-      <c r="B126" s="3">
-        <v>1</v>
-      </c>
-      <c r="C126" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B126" s="12">
+        <v>1</v>
+      </c>
+      <c r="C126" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>105</v>
       </c>
-      <c r="B127" s="3">
-        <v>1</v>
-      </c>
-      <c r="C127" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B127" s="12">
+        <v>1</v>
+      </c>
+      <c r="C127" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>106</v>
       </c>
-      <c r="B128" s="3">
-        <v>1</v>
-      </c>
-      <c r="C128" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B128" s="12">
+        <v>1</v>
+      </c>
+      <c r="C128" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>107</v>
       </c>
-      <c r="B129" s="3">
-        <v>1</v>
-      </c>
-      <c r="C129" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B129" s="12">
+        <v>1</v>
+      </c>
+      <c r="C129" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>108</v>
       </c>
-      <c r="B130" s="3">
-        <v>1</v>
-      </c>
-      <c r="C130" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B130" s="12">
+        <v>1</v>
+      </c>
+      <c r="C130" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>109</v>
       </c>
-      <c r="B131" s="3">
-        <v>1</v>
-      </c>
-      <c r="C131" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B131" s="12">
+        <v>1</v>
+      </c>
+      <c r="C131" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>110</v>
       </c>
-      <c r="B132" s="3">
-        <v>1</v>
-      </c>
-      <c r="C132" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B132" s="12">
+        <v>1</v>
+      </c>
+      <c r="C132" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>111</v>
       </c>
-      <c r="B133" s="3">
-        <v>1</v>
-      </c>
-      <c r="C133" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B133" s="12">
+        <v>1</v>
+      </c>
+      <c r="C133" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>112</v>
       </c>
-      <c r="B134" s="3">
-        <v>1</v>
-      </c>
-      <c r="C134" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B134" s="12">
+        <v>1</v>
+      </c>
+      <c r="C134" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>113</v>
       </c>
-      <c r="B135" s="3">
-        <v>1</v>
-      </c>
-      <c r="C135" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B135" s="12">
+        <v>1</v>
+      </c>
+      <c r="C135" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>114</v>
       </c>
-      <c r="B136" s="3">
-        <v>1</v>
-      </c>
-      <c r="C136" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B136" s="12">
+        <v>1</v>
+      </c>
+      <c r="C136" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>6</v>
       </c>
-      <c r="B137" s="3">
-        <v>1</v>
-      </c>
-      <c r="C137" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B137" s="12">
+        <v>1</v>
+      </c>
+      <c r="C137" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>26</v>
       </c>
-      <c r="B138" s="3">
-        <v>1</v>
-      </c>
-      <c r="C138" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B138" s="12">
+        <v>1</v>
+      </c>
+      <c r="C138" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>115</v>
       </c>
-      <c r="B139" s="3">
-        <v>1</v>
-      </c>
-      <c r="C139" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B139" s="12">
+        <v>1</v>
+      </c>
+      <c r="C139" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>116</v>
       </c>
-      <c r="B140" s="3">
-        <v>1</v>
-      </c>
-      <c r="C140" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B140" s="12">
+        <v>1</v>
+      </c>
+      <c r="C140" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>117</v>
       </c>
-      <c r="B141" s="3">
-        <v>1</v>
-      </c>
-      <c r="C141" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B141" s="12">
+        <v>1</v>
+      </c>
+      <c r="C141" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>6</v>
       </c>
-      <c r="B142" s="3">
-        <v>1</v>
-      </c>
-      <c r="C142" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B142" s="12">
+        <v>1</v>
+      </c>
+      <c r="C142" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>118</v>
       </c>
-      <c r="B143" s="3">
-        <v>1</v>
-      </c>
-      <c r="C143" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B143" s="12">
+        <v>1</v>
+      </c>
+      <c r="C143" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>56</v>
       </c>
-      <c r="B144" s="3">
-        <v>1</v>
-      </c>
-      <c r="C144" s="9">
+      <c r="B144" s="12">
+        <v>1</v>
+      </c>
+      <c r="C144" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>119</v>
       </c>
-      <c r="B145" s="3">
-        <v>1</v>
-      </c>
-      <c r="C145" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B145" s="12">
+        <v>1</v>
+      </c>
+      <c r="C145" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>120</v>
       </c>
-      <c r="B146" s="3">
-        <v>1</v>
-      </c>
-      <c r="C146" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B146" s="12">
+        <v>1</v>
+      </c>
+      <c r="C146" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>121</v>
       </c>
-      <c r="B147" s="3">
-        <v>1</v>
-      </c>
-      <c r="C147" s="9">
+      <c r="B147" s="12">
+        <v>1</v>
+      </c>
+      <c r="C147" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>122</v>
       </c>
-      <c r="B148" s="3">
-        <v>1</v>
-      </c>
-      <c r="C148" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B148" s="12">
+        <v>1</v>
+      </c>
+      <c r="C148" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>14</v>
       </c>
-      <c r="B149" s="3">
-        <v>1</v>
-      </c>
-      <c r="C149" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B149" s="12">
+        <v>1</v>
+      </c>
+      <c r="C149" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>123</v>
       </c>
-      <c r="B150" s="3">
-        <v>1</v>
-      </c>
-      <c r="C150" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B150" s="12">
+        <v>1</v>
+      </c>
+      <c r="C150" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>124</v>
       </c>
-      <c r="B151" s="3">
-        <v>1</v>
-      </c>
-      <c r="C151" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B151" s="12">
+        <v>1</v>
+      </c>
+      <c r="C151" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>125</v>
       </c>
-      <c r="B152" s="3">
-        <v>1</v>
-      </c>
-      <c r="C152" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B152" s="12">
+        <v>1</v>
+      </c>
+      <c r="C152" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>126</v>
       </c>
-      <c r="B153" s="3">
-        <v>1</v>
-      </c>
-      <c r="C153" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B153" s="12">
+        <v>1</v>
+      </c>
+      <c r="C153" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>123</v>
       </c>
-      <c r="B154" s="3">
-        <v>1</v>
-      </c>
-      <c r="C154" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B154" s="12">
+        <v>1</v>
+      </c>
+      <c r="C154" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>6</v>
       </c>
-      <c r="B155" s="3">
-        <v>1</v>
-      </c>
-      <c r="C155" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B155" s="12">
+        <v>1</v>
+      </c>
+      <c r="C155" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>127</v>
       </c>
-      <c r="B156" s="3">
-        <v>1</v>
-      </c>
-      <c r="C156" s="9">
+      <c r="B156" s="12">
+        <v>1</v>
+      </c>
+      <c r="C156" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>128</v>
       </c>
-      <c r="B157" s="3">
-        <v>1</v>
-      </c>
-      <c r="C157" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B157" s="12">
+        <v>1</v>
+      </c>
+      <c r="C157" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>129</v>
       </c>
-      <c r="B158" s="3">
-        <v>1</v>
-      </c>
-      <c r="C158" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B158" s="12">
+        <v>1</v>
+      </c>
+      <c r="C158" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>14</v>
       </c>
-      <c r="B159" s="3">
-        <v>1</v>
-      </c>
-      <c r="C159" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B159" s="12">
+        <v>1</v>
+      </c>
+      <c r="C159" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>21</v>
       </c>
-      <c r="B160" s="3">
-        <v>1</v>
-      </c>
-      <c r="C160" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B160" s="12">
+        <v>1</v>
+      </c>
+      <c r="C160" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>130</v>
       </c>
-      <c r="B161" s="3">
-        <v>1</v>
-      </c>
-      <c r="C161" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B161" s="12">
+        <v>1</v>
+      </c>
+      <c r="C161" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>4</v>
       </c>
-      <c r="B162" s="3">
-        <v>1</v>
-      </c>
-      <c r="C162" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B162" s="12">
+        <v>1</v>
+      </c>
+      <c r="C162" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>131</v>
       </c>
-      <c r="B163" s="3">
-        <v>1</v>
-      </c>
-      <c r="C163" s="7">
+      <c r="B163" s="12">
+        <v>1</v>
+      </c>
+      <c r="C163" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>132</v>
       </c>
-      <c r="B164" s="3">
-        <v>1</v>
-      </c>
-      <c r="C164" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B164" s="12">
+        <v>1</v>
+      </c>
+      <c r="C164" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>133</v>
       </c>
-      <c r="B165" s="3">
+      <c r="B165" s="12">
         <v>1</v>
       </c>
       <c r="C165" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>134</v>
       </c>
-      <c r="B166" s="3">
-        <v>1</v>
-      </c>
-      <c r="C166" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B166" s="12">
+        <v>1</v>
+      </c>
+      <c r="C166" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>6</v>
       </c>
-      <c r="B167" s="3">
-        <v>1</v>
-      </c>
-      <c r="C167" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B167" s="12">
+        <v>1</v>
+      </c>
+      <c r="C167" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>135</v>
       </c>
-      <c r="B168" s="3">
-        <v>1</v>
-      </c>
-      <c r="C168" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B168" s="12">
+        <v>1</v>
+      </c>
+      <c r="C168" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>136</v>
       </c>
-      <c r="B169" s="3">
-        <v>1</v>
-      </c>
-      <c r="C169" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B169" s="12">
+        <v>1</v>
+      </c>
+      <c r="C169" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>137</v>
       </c>
-      <c r="B170" s="3">
-        <v>1</v>
-      </c>
-      <c r="C170" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B170" s="12">
+        <v>1</v>
+      </c>
+      <c r="C170" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>138</v>
       </c>
-      <c r="B171" s="3">
+      <c r="B171" s="12">
         <v>0</v>
       </c>
       <c r="C171" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>139</v>
       </c>
-      <c r="B172" s="3">
-        <v>1</v>
-      </c>
-      <c r="C172" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B172" s="12">
+        <v>1</v>
+      </c>
+      <c r="C172" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>140</v>
       </c>
-      <c r="B173" s="3">
-        <v>1</v>
-      </c>
-      <c r="C173" s="7">
+      <c r="B173" s="12">
+        <v>1</v>
+      </c>
+      <c r="C173" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>141</v>
       </c>
-      <c r="B174" s="4">
+      <c r="B174" s="11">
         <v>0</v>
       </c>
-      <c r="C174" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C174" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>142</v>
       </c>
-      <c r="B175" s="3">
-        <v>1</v>
-      </c>
-      <c r="C175" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B175" s="12">
+        <v>1</v>
+      </c>
+      <c r="C175" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>143</v>
       </c>
-      <c r="B176" s="3">
-        <v>1</v>
-      </c>
-      <c r="C176" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B176" s="12">
+        <v>1</v>
+      </c>
+      <c r="C176" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>144</v>
       </c>
-      <c r="B177" s="3">
-        <v>1</v>
-      </c>
-      <c r="C177" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B177" s="12">
+        <v>1</v>
+      </c>
+      <c r="C177" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>145</v>
       </c>
-      <c r="B178" s="3">
-        <v>1</v>
-      </c>
-      <c r="C178" s="6">
+      <c r="B178" s="12">
+        <v>1</v>
+      </c>
+      <c r="C178" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>146</v>
       </c>
-      <c r="B179" s="3">
-        <v>1</v>
-      </c>
-      <c r="C179" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B179" s="12">
+        <v>1</v>
+      </c>
+      <c r="C179" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>147</v>
       </c>
-      <c r="B180" s="3">
-        <v>1</v>
-      </c>
-      <c r="C180" s="6">
+      <c r="B180" s="12">
+        <v>1</v>
+      </c>
+      <c r="C180" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>148</v>
       </c>
-      <c r="B181" s="3">
-        <v>1</v>
-      </c>
-      <c r="C181" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B181" s="12">
+        <v>1</v>
+      </c>
+      <c r="C181" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>6</v>
       </c>
-      <c r="B182" s="3">
-        <v>1</v>
-      </c>
-      <c r="C182" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B182" s="12">
+        <v>1</v>
+      </c>
+      <c r="C182" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>115</v>
       </c>
-      <c r="B183" s="3">
-        <v>1</v>
-      </c>
-      <c r="C183" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B183" s="12">
+        <v>1</v>
+      </c>
+      <c r="C183" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>149</v>
       </c>
-      <c r="B184" s="3">
-        <v>1</v>
-      </c>
-      <c r="C184" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B184" s="12">
+        <v>1</v>
+      </c>
+      <c r="C184" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>150</v>
       </c>
-      <c r="B185" s="3">
-        <v>1</v>
-      </c>
-      <c r="C185" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B185" s="12">
+        <v>1</v>
+      </c>
+      <c r="C185" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>151</v>
       </c>
-      <c r="B186" s="3">
-        <v>1</v>
-      </c>
-      <c r="C186" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B186" s="12">
+        <v>1</v>
+      </c>
+      <c r="C186" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>82</v>
       </c>
-      <c r="B187" s="3">
-        <v>1</v>
-      </c>
-      <c r="C187" s="7">
+      <c r="B187" s="12">
+        <v>1</v>
+      </c>
+      <c r="C187" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>152</v>
       </c>
-      <c r="B188" s="3">
-        <v>1</v>
-      </c>
-      <c r="C188" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B188" s="12">
+        <v>1</v>
+      </c>
+      <c r="C188" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>62</v>
       </c>
-      <c r="B189" s="3">
-        <v>1</v>
-      </c>
-      <c r="C189" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B189" s="12">
+        <v>1</v>
+      </c>
+      <c r="C189" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>99</v>
       </c>
-      <c r="B190" s="3">
-        <v>1</v>
-      </c>
-      <c r="C190" s="7">
+      <c r="B190" s="12">
+        <v>1</v>
+      </c>
+      <c r="C190" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>153</v>
       </c>
-      <c r="B191" s="3">
+      <c r="B191" s="12">
         <v>0</v>
       </c>
-      <c r="C191" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C191" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>6</v>
       </c>
-      <c r="B192" s="3">
-        <v>1</v>
-      </c>
-      <c r="C192" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B192" s="12">
+        <v>1</v>
+      </c>
+      <c r="C192" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>154</v>
       </c>
-      <c r="B193" s="3">
+      <c r="B193" s="12">
         <v>0</v>
       </c>
-      <c r="C193" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C193" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>155</v>
       </c>
-      <c r="B194" s="3">
-        <v>1</v>
-      </c>
-      <c r="C194" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B194" s="12">
+        <v>1</v>
+      </c>
+      <c r="C194" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>156</v>
       </c>
-      <c r="B195" s="3">
-        <v>1</v>
-      </c>
-      <c r="C195" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B195" s="12">
+        <v>1</v>
+      </c>
+      <c r="C195" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>157</v>
       </c>
-      <c r="B196" s="3">
-        <v>1</v>
-      </c>
-      <c r="C196" s="7">
+      <c r="B196" s="12">
+        <v>1</v>
+      </c>
+      <c r="C196" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>158</v>
       </c>
-      <c r="B197" s="3">
-        <v>1</v>
-      </c>
-      <c r="C197" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B197" s="12">
+        <v>1</v>
+      </c>
+      <c r="C197" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>159</v>
       </c>
-      <c r="B198" s="3">
-        <v>1</v>
-      </c>
-      <c r="C198" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B198" s="12">
+        <v>1</v>
+      </c>
+      <c r="C198" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>160</v>
       </c>
-      <c r="B199" s="3">
-        <v>1</v>
-      </c>
-      <c r="C199" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B199" s="12">
+        <v>1</v>
+      </c>
+      <c r="C199" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>161</v>
       </c>
-      <c r="B200" s="3">
-        <v>1</v>
-      </c>
-      <c r="C200" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B200" s="12">
+        <v>1</v>
+      </c>
+      <c r="C200" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>6</v>
       </c>
-      <c r="B201" s="3">
-        <v>1</v>
-      </c>
-      <c r="C201" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B201" s="12">
+        <v>1</v>
+      </c>
+      <c r="C201" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>162</v>
       </c>
-      <c r="B202" s="3">
-        <v>1</v>
-      </c>
-      <c r="C202" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B202" s="12">
+        <v>1</v>
+      </c>
+      <c r="C202" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>163</v>
       </c>
-      <c r="B203" s="3">
-        <v>1</v>
-      </c>
-      <c r="C203" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B203" s="12">
+        <v>1</v>
+      </c>
+      <c r="C203" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>164</v>
       </c>
-      <c r="B204" s="3">
-        <v>1</v>
-      </c>
-      <c r="C204" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B204" s="12">
+        <v>1</v>
+      </c>
+      <c r="C204" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>82</v>
       </c>
-      <c r="B205" s="3">
+      <c r="B205" s="12">
         <v>0</v>
       </c>
-      <c r="C205" s="6">
+      <c r="C205" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>6</v>
       </c>
-      <c r="B206" s="3">
-        <v>1</v>
-      </c>
-      <c r="C206" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B206" s="12">
+        <v>1</v>
+      </c>
+      <c r="C206" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>165</v>
       </c>
-      <c r="B207" s="3">
-        <v>1</v>
-      </c>
-      <c r="C207" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B207" s="12">
+        <v>1</v>
+      </c>
+      <c r="C207" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>166</v>
       </c>
-      <c r="B208" s="3">
-        <v>1</v>
-      </c>
-      <c r="C208" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B208" s="12">
+        <v>1</v>
+      </c>
+      <c r="C208" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>167</v>
       </c>
-      <c r="B209" s="3">
-        <v>1</v>
-      </c>
-      <c r="C209" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B209" s="12">
+        <v>1</v>
+      </c>
+      <c r="C209" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>115</v>
       </c>
-      <c r="B210" s="3">
-        <v>1</v>
-      </c>
-      <c r="C210" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B210" s="12">
+        <v>1</v>
+      </c>
+      <c r="C210" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>9</v>
       </c>
-      <c r="B211" s="3">
-        <v>1</v>
-      </c>
-      <c r="C211" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B211" s="12">
+        <v>1</v>
+      </c>
+      <c r="C211" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>168</v>
       </c>
-      <c r="B212" s="3">
-        <v>1</v>
-      </c>
-      <c r="C212" s="7">
+      <c r="B212" s="12">
+        <v>1</v>
+      </c>
+      <c r="C212" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>169</v>
       </c>
-      <c r="B213" s="3">
-        <v>1</v>
-      </c>
-      <c r="C213" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B213" s="12">
+        <v>1</v>
+      </c>
+      <c r="C213" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>8</v>
       </c>
-      <c r="B214" s="3">
-        <v>1</v>
-      </c>
-      <c r="C214" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B214" s="12">
+        <v>1</v>
+      </c>
+      <c r="C214" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>170</v>
       </c>
-      <c r="B215" s="3">
-        <v>1</v>
-      </c>
-      <c r="C215" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B215" s="12">
+        <v>1</v>
+      </c>
+      <c r="C215" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>26</v>
       </c>
-      <c r="B216" s="3">
-        <v>1</v>
-      </c>
-      <c r="C216" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B216" s="12">
+        <v>1</v>
+      </c>
+      <c r="C216" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>115</v>
       </c>
-      <c r="B217" s="3">
-        <v>1</v>
-      </c>
-      <c r="C217" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B217" s="12">
+        <v>1</v>
+      </c>
+      <c r="C217" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>99</v>
       </c>
-      <c r="B218" s="3">
-        <v>1</v>
-      </c>
-      <c r="C218" s="7">
+      <c r="B218" s="12">
+        <v>1</v>
+      </c>
+      <c r="C218" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>171</v>
       </c>
-      <c r="B219" s="3">
-        <v>1</v>
-      </c>
-      <c r="C219" s="7">
+      <c r="B219" s="12">
+        <v>1</v>
+      </c>
+      <c r="C219" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>172</v>
       </c>
-      <c r="B220" s="3">
-        <v>1</v>
-      </c>
-      <c r="C220" s="7">
+      <c r="B220" s="12">
+        <v>1</v>
+      </c>
+      <c r="C220" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>173</v>
       </c>
-      <c r="B221" s="3">
-        <v>1</v>
-      </c>
-      <c r="C221" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B221" s="12">
+        <v>1</v>
+      </c>
+      <c r="C221" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>174</v>
       </c>
-      <c r="B222" s="3">
-        <v>1</v>
-      </c>
-      <c r="C222" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B222" s="12">
+        <v>1</v>
+      </c>
+      <c r="C222" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>13</v>
       </c>
-      <c r="B223" s="3">
-        <v>1</v>
-      </c>
-      <c r="C223" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B223" s="12">
+        <v>1</v>
+      </c>
+      <c r="C223" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>175</v>
       </c>
-      <c r="B224" s="3">
-        <v>1</v>
-      </c>
-      <c r="C224" s="7">
+      <c r="B224" s="12">
+        <v>1</v>
+      </c>
+      <c r="C224" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>27</v>
       </c>
-      <c r="B225" s="3">
-        <v>1</v>
-      </c>
-      <c r="C225" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B225" s="12">
+        <v>1</v>
+      </c>
+      <c r="C225" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>164</v>
       </c>
-      <c r="B226" s="3">
-        <v>1</v>
-      </c>
-      <c r="C226" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B226" s="12">
+        <v>1</v>
+      </c>
+      <c r="C226" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>176</v>
       </c>
-      <c r="B227" s="3">
-        <v>1</v>
-      </c>
-      <c r="C227" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B227" s="12">
+        <v>1</v>
+      </c>
+      <c r="C227" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>177</v>
       </c>
-      <c r="B228" s="3">
-        <v>1</v>
-      </c>
-      <c r="C228" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B228" s="12">
+        <v>1</v>
+      </c>
+      <c r="C228" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>178</v>
       </c>
-      <c r="B229" s="3">
-        <v>1</v>
-      </c>
-      <c r="C229" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B229" s="12">
+        <v>1</v>
+      </c>
+      <c r="C229" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>43</v>
       </c>
-      <c r="B230" s="3">
-        <v>1</v>
-      </c>
-      <c r="C230" s="7">
+      <c r="B230" s="12">
+        <v>1</v>
+      </c>
+      <c r="C230" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>83</v>
       </c>
-      <c r="B231" s="3">
-        <v>1</v>
-      </c>
-      <c r="C231" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B231" s="12">
+        <v>1</v>
+      </c>
+      <c r="C231" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>179</v>
       </c>
-      <c r="B232" s="3">
-        <v>1</v>
-      </c>
-      <c r="C232" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B232" s="12">
+        <v>1</v>
+      </c>
+      <c r="C232" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>180</v>
       </c>
-      <c r="B233" s="3">
-        <v>1</v>
-      </c>
-      <c r="C233" s="7">
+      <c r="B233" s="12">
+        <v>1</v>
+      </c>
+      <c r="C233" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>21</v>
       </c>
-      <c r="B234" s="3">
-        <v>1</v>
-      </c>
-      <c r="C234" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B234" s="12">
+        <v>1</v>
+      </c>
+      <c r="C234" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>181</v>
       </c>
-      <c r="B235" s="3">
-        <v>1</v>
-      </c>
-      <c r="C235" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B235" s="12">
+        <v>1</v>
+      </c>
+      <c r="C235" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>182</v>
       </c>
-      <c r="B236" s="3">
-        <v>1</v>
-      </c>
-      <c r="C236" s="7">
+      <c r="B236" s="12">
+        <v>1</v>
+      </c>
+      <c r="C236" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>183</v>
       </c>
-      <c r="B237" s="3">
-        <v>1</v>
-      </c>
-      <c r="C237" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B237" s="12">
+        <v>1</v>
+      </c>
+      <c r="C237" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>184</v>
       </c>
-      <c r="B238" s="3">
-        <v>1</v>
-      </c>
-      <c r="C238" s="8">
+      <c r="B238" s="12">
+        <v>1</v>
+      </c>
+      <c r="C238" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>154</v>
       </c>
-      <c r="B239" s="3">
-        <v>1</v>
-      </c>
-      <c r="C239" s="8">
+      <c r="B239" s="12">
+        <v>1</v>
+      </c>
+      <c r="C239" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>185</v>
       </c>
-      <c r="B240" s="3">
-        <v>1</v>
-      </c>
-      <c r="C240" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B240" s="12">
+        <v>1</v>
+      </c>
+      <c r="C240" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>21</v>
       </c>
-      <c r="B241" s="3">
-        <v>1</v>
-      </c>
-      <c r="C241" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B241" s="12">
+        <v>1</v>
+      </c>
+      <c r="C241" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>186</v>
       </c>
-      <c r="B242" s="3">
-        <v>1</v>
-      </c>
-      <c r="C242" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B242" s="12">
+        <v>1</v>
+      </c>
+      <c r="C242" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>144</v>
       </c>
-      <c r="B243" s="3">
-        <v>1</v>
-      </c>
-      <c r="C243" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B243" s="12">
+        <v>1</v>
+      </c>
+      <c r="C243" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>187</v>
       </c>
-      <c r="B244" s="3">
-        <v>1</v>
-      </c>
-      <c r="C244" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B244" s="12">
+        <v>1</v>
+      </c>
+      <c r="C244" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>188</v>
       </c>
-      <c r="B245" s="3">
-        <v>1</v>
-      </c>
-      <c r="C245" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B245" s="12">
+        <v>1</v>
+      </c>
+      <c r="C245" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>39</v>
       </c>
-      <c r="B246" s="3">
-        <v>1</v>
-      </c>
-      <c r="C246" s="7">
+      <c r="B246" s="12">
+        <v>1</v>
+      </c>
+      <c r="C246" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>189</v>
       </c>
-      <c r="B247" s="3">
-        <v>1</v>
-      </c>
-      <c r="C247" s="8">
+      <c r="B247" s="12">
+        <v>1</v>
+      </c>
+      <c r="C247" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>190</v>
       </c>
-      <c r="B248" s="3">
-        <v>1</v>
-      </c>
-      <c r="C248" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B248" s="12">
+        <v>1</v>
+      </c>
+      <c r="C248" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>191</v>
       </c>
-      <c r="B249" s="3">
-        <v>1</v>
-      </c>
-      <c r="C249" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B249" s="12">
+        <v>1</v>
+      </c>
+      <c r="C249" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>192</v>
       </c>
-      <c r="B250" s="3">
-        <v>1</v>
-      </c>
-      <c r="C250" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B250" s="12">
+        <v>1</v>
+      </c>
+      <c r="C250" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>193</v>
       </c>
-      <c r="B251" s="3">
-        <v>1</v>
-      </c>
-      <c r="C251" s="8">
+      <c r="B251" s="12">
+        <v>1</v>
+      </c>
+      <c r="C251" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>194</v>
       </c>
-      <c r="B252" s="3">
-        <v>1</v>
-      </c>
-      <c r="C252" s="8">
+      <c r="B252" s="12">
+        <v>1</v>
+      </c>
+      <c r="C252" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>195</v>
       </c>
-      <c r="B253" s="3">
-        <v>1</v>
-      </c>
-      <c r="C253" s="8">
+      <c r="B253" s="12">
+        <v>1</v>
+      </c>
+      <c r="C253" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>196</v>
       </c>
-      <c r="B254" s="3">
-        <v>1</v>
-      </c>
-      <c r="C254" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B254" s="12">
+        <v>1</v>
+      </c>
+      <c r="C254" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>9</v>
       </c>
-      <c r="B255" s="3">
-        <v>1</v>
-      </c>
-      <c r="C255" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B255" s="12">
+        <v>1</v>
+      </c>
+      <c r="C255" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>197</v>
       </c>
-      <c r="B256" s="3">
-        <v>1</v>
-      </c>
-      <c r="C256" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B256" s="12">
+        <v>1</v>
+      </c>
+      <c r="C256" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>198</v>
       </c>
-      <c r="B257" s="3">
-        <v>1</v>
-      </c>
-      <c r="C257" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B257" s="12">
+        <v>1</v>
+      </c>
+      <c r="C257" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>6</v>
       </c>
-      <c r="B258" s="3">
-        <v>1</v>
-      </c>
-      <c r="C258" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B258" s="12">
+        <v>1</v>
+      </c>
+      <c r="C258" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>133</v>
       </c>
-      <c r="B259" s="3">
-        <v>1</v>
-      </c>
-      <c r="C259" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B259" s="12">
+        <v>1</v>
+      </c>
+      <c r="C259" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>115</v>
       </c>
-      <c r="B260" s="3">
-        <v>1</v>
-      </c>
-      <c r="C260" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B260" s="12">
+        <v>1</v>
+      </c>
+      <c r="C260" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>199</v>
       </c>
-      <c r="B261" s="3">
-        <v>1</v>
-      </c>
-      <c r="C261" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B261" s="12">
+        <v>1</v>
+      </c>
+      <c r="C261" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>200</v>
       </c>
-      <c r="B262" s="3">
+      <c r="B262" s="12">
         <v>0</v>
       </c>
-      <c r="C262" s="6">
+      <c r="C262" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>201</v>
       </c>
-      <c r="B263" s="3">
-        <v>1</v>
-      </c>
-      <c r="C263" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B263" s="12">
+        <v>1</v>
+      </c>
+      <c r="C263" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>202</v>
       </c>
-      <c r="B264" s="3">
+      <c r="B264" s="12">
         <v>0</v>
       </c>
-      <c r="C264" s="6">
+      <c r="C264" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>203</v>
       </c>
-      <c r="B265" s="3">
-        <v>1</v>
-      </c>
-      <c r="C265" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B265" s="12">
+        <v>1</v>
+      </c>
+      <c r="C265" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>133</v>
       </c>
-      <c r="B266" s="3">
-        <v>1</v>
-      </c>
-      <c r="C266" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B266" s="12">
+        <v>1</v>
+      </c>
+      <c r="C266" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>204</v>
       </c>
-      <c r="B267" s="3">
-        <v>1</v>
-      </c>
-      <c r="C267" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B267" s="12">
+        <v>1</v>
+      </c>
+      <c r="C267" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>27</v>
       </c>
-      <c r="B268" s="3">
-        <v>1</v>
-      </c>
-      <c r="C268" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B268" s="12">
+        <v>1</v>
+      </c>
+      <c r="C268" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>167</v>
       </c>
-      <c r="B269" s="3">
-        <v>1</v>
-      </c>
-      <c r="C269" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B269" s="12">
+        <v>1</v>
+      </c>
+      <c r="C269" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>112</v>
       </c>
-      <c r="B270" s="3">
-        <v>1</v>
-      </c>
-      <c r="C270" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B270" s="12">
+        <v>1</v>
+      </c>
+      <c r="C270" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>205</v>
       </c>
-      <c r="B271" s="3">
-        <v>1</v>
-      </c>
-      <c r="C271" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B271" s="12">
+        <v>1</v>
+      </c>
+      <c r="C271" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>89</v>
       </c>
-      <c r="B272" s="3">
-        <v>1</v>
-      </c>
-      <c r="C272" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B272" s="12">
+        <v>1</v>
+      </c>
+      <c r="C272" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>206</v>
       </c>
-      <c r="B273" s="3">
-        <v>1</v>
-      </c>
-      <c r="C273" s="6">
+      <c r="B273" s="12">
+        <v>1</v>
+      </c>
+      <c r="C273" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>207</v>
       </c>
-      <c r="B274" s="3">
-        <v>1</v>
-      </c>
-      <c r="C274" s="8">
+      <c r="B274" s="12">
+        <v>1</v>
+      </c>
+      <c r="C274" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>208</v>
       </c>
-      <c r="B275" s="3">
-        <v>1</v>
-      </c>
-      <c r="C275" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B275" s="12">
+        <v>1</v>
+      </c>
+      <c r="C275" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>209</v>
       </c>
-      <c r="B276" s="3">
-        <v>1</v>
-      </c>
-      <c r="C276" s="6">
+      <c r="B276" s="12">
+        <v>1</v>
+      </c>
+      <c r="C276" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>142</v>
       </c>
-      <c r="B277" s="3">
-        <v>1</v>
-      </c>
-      <c r="C277" s="6">
+      <c r="B277" s="12">
+        <v>1</v>
+      </c>
+      <c r="C277" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>48</v>
       </c>
-      <c r="B278" s="3">
-        <v>1</v>
-      </c>
-      <c r="C278" s="6">
+      <c r="B278" s="12">
+        <v>1</v>
+      </c>
+      <c r="C278" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>26</v>
       </c>
-      <c r="B279" s="3">
-        <v>1</v>
-      </c>
-      <c r="C279" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B279" s="12">
+        <v>1</v>
+      </c>
+      <c r="C279" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>210</v>
       </c>
-      <c r="B280" s="3">
-        <v>1</v>
-      </c>
-      <c r="C280" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B280" s="12">
+        <v>1</v>
+      </c>
+      <c r="C280" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>115</v>
       </c>
-      <c r="B281" s="3">
-        <v>1</v>
-      </c>
-      <c r="C281" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B281" s="12">
+        <v>1</v>
+      </c>
+      <c r="C281" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>211</v>
       </c>
-      <c r="B282" s="3">
-        <v>1</v>
-      </c>
-      <c r="C282" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B282" s="12">
+        <v>1</v>
+      </c>
+      <c r="C282" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>212</v>
       </c>
-      <c r="B283" s="3">
-        <v>1</v>
-      </c>
-      <c r="C283" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B283" s="12">
+        <v>1</v>
+      </c>
+      <c r="C283" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>112</v>
       </c>
-      <c r="B284" s="3">
-        <v>1</v>
-      </c>
-      <c r="C284" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B284" s="12">
+        <v>1</v>
+      </c>
+      <c r="C284" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>82</v>
       </c>
-      <c r="B285" s="3">
-        <v>1</v>
-      </c>
-      <c r="C285" s="6">
+      <c r="B285" s="12">
+        <v>1</v>
+      </c>
+      <c r="C285" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>213</v>
       </c>
-      <c r="B286" s="3">
-        <v>1</v>
-      </c>
-      <c r="C286" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B286" s="12">
+        <v>1</v>
+      </c>
+      <c r="C286" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>214</v>
       </c>
-      <c r="B287" s="3">
-        <v>1</v>
-      </c>
-      <c r="C287" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B287" s="12">
+        <v>1</v>
+      </c>
+      <c r="C287" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>87</v>
       </c>
-      <c r="B288" s="3">
-        <v>1</v>
-      </c>
-      <c r="C288" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B288" s="12">
+        <v>1</v>
+      </c>
+      <c r="C288" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>14</v>
       </c>
-      <c r="B289" s="3">
-        <v>1</v>
-      </c>
-      <c r="C289" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B289" s="12">
+        <v>1</v>
+      </c>
+      <c r="C289" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>215</v>
       </c>
-      <c r="B290" s="3">
-        <v>1</v>
-      </c>
-      <c r="C290" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B290" s="12">
+        <v>1</v>
+      </c>
+      <c r="C290" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>142</v>
       </c>
-      <c r="B291" s="3">
-        <v>1</v>
-      </c>
-      <c r="C291" s="6">
+      <c r="B291" s="12">
+        <v>1</v>
+      </c>
+      <c r="C291" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>216</v>
       </c>
-      <c r="B292" s="3">
-        <v>1</v>
-      </c>
-      <c r="C292" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B292" s="12">
+        <v>1</v>
+      </c>
+      <c r="C292" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>65</v>
       </c>
-      <c r="B293" s="3">
-        <v>1</v>
-      </c>
-      <c r="C293" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B293" s="12">
+        <v>1</v>
+      </c>
+      <c r="C293" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>48</v>
       </c>
-      <c r="B294" s="3">
-        <v>1</v>
-      </c>
-      <c r="C294" s="6">
+      <c r="B294" s="12">
+        <v>1</v>
+      </c>
+      <c r="C294" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>217</v>
       </c>
-      <c r="B295" s="3">
-        <v>1</v>
-      </c>
-      <c r="C295" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B295" s="12">
+        <v>1</v>
+      </c>
+      <c r="C295" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>131</v>
       </c>
-      <c r="B296" s="3">
-        <v>1</v>
-      </c>
-      <c r="C296" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B296" s="12">
+        <v>1</v>
+      </c>
+      <c r="C296" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>6</v>
       </c>
-      <c r="B297" s="3">
-        <v>1</v>
-      </c>
-      <c r="C297" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B297" s="12">
+        <v>1</v>
+      </c>
+      <c r="C297" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>95</v>
       </c>
-      <c r="B298" s="3">
-        <v>1</v>
-      </c>
-      <c r="C298" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B298" s="12">
+        <v>1</v>
+      </c>
+      <c r="C298" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>166</v>
       </c>
-      <c r="B299" s="3">
-        <v>1</v>
-      </c>
-      <c r="C299" s="8">
+      <c r="B299" s="12">
+        <v>1</v>
+      </c>
+      <c r="C299" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>47</v>
       </c>
-      <c r="B300" s="3">
-        <v>1</v>
-      </c>
-      <c r="C300" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B300" s="12">
+        <v>1</v>
+      </c>
+      <c r="C300" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>218</v>
       </c>
-      <c r="B301" s="3">
-        <v>1</v>
-      </c>
-      <c r="C301" s="8">
-        <v>3</v>
-      </c>
+      <c r="B301" s="12">
+        <v>1</v>
+      </c>
+      <c r="C301" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B302" s="13"/>
+    </row>
+    <row r="303" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B303" s="13"/>
+    </row>
+    <row r="304" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B304" s="13"/>
+    </row>
+    <row r="305" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B305" s="13"/>
+    </row>
+    <row r="306" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B306" s="13"/>
+    </row>
+    <row r="307" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B307" s="13"/>
+    </row>
+    <row r="308" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B308" s="13"/>
+    </row>
+    <row r="309" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B309" s="13"/>
+    </row>
+    <row r="310" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B310" s="13"/>
+    </row>
+    <row r="311" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B311" s="13"/>
+    </row>
+    <row r="312" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B312" s="13"/>
+    </row>
+    <row r="313" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B313" s="13"/>
+    </row>
+    <row r="314" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B314" s="13"/>
+    </row>
+    <row r="315" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B315" s="13"/>
+    </row>
+    <row r="316" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B316" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -4916,13 +4956,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="71.83203125" customWidth="1"/>
-    <col min="2" max="11" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="71.81640625" customWidth="1"/>
+    <col min="2" max="11" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>219</v>
       </c>
@@ -4933,7 +4973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -4944,7 +4984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>220</v>
       </c>
@@ -4955,7 +4995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -4966,7 +5006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>221</v>
       </c>
@@ -4977,7 +5017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>112</v>
       </c>
@@ -4988,7 +5028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -4999,7 +5039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>222</v>
       </c>
@@ -5010,7 +5050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>223</v>
       </c>
@@ -5021,7 +5061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>224</v>
       </c>
@@ -5032,7 +5072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>225</v>
       </c>
@@ -5043,7 +5083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>226</v>
       </c>
@@ -5054,7 +5094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>227</v>
       </c>
@@ -5065,7 +5105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>123</v>
       </c>
@@ -5076,7 +5116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -5087,7 +5127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>133</v>
       </c>
@@ -5098,7 +5138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>228</v>
       </c>
@@ -5109,7 +5149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -5120,7 +5160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>229</v>
       </c>
@@ -5131,7 +5171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>230</v>
       </c>
@@ -5142,7 +5182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>183</v>
       </c>
@@ -5153,7 +5193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>231</v>
       </c>
@@ -5164,7 +5204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>232</v>
       </c>
@@ -5175,8 +5215,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
         <v>233</v>
       </c>
       <c r="B24">
@@ -5186,7 +5226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>234</v>
       </c>
@@ -5197,7 +5237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -5208,7 +5248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>235</v>
       </c>
@@ -5219,7 +5259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>236</v>
       </c>
@@ -5230,7 +5270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -5241,7 +5281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -5252,7 +5292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>237</v>
       </c>
@@ -5263,7 +5303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>238</v>
       </c>
@@ -5274,7 +5314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>239</v>
       </c>
@@ -5285,7 +5325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>240</v>
       </c>
@@ -5296,7 +5336,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>241</v>
       </c>
@@ -5307,7 +5347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>242</v>
       </c>
@@ -5318,7 +5358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -5329,7 +5369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -5340,7 +5380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>157</v>
       </c>
@@ -5351,7 +5391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>243</v>
       </c>
@@ -5362,7 +5402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>244</v>
       </c>
@@ -5373,7 +5413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>245</v>
       </c>
@@ -5384,7 +5424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>246</v>
       </c>
@@ -5395,7 +5435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>198</v>
       </c>
@@ -5406,7 +5446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>247</v>
       </c>
@@ -5417,7 +5457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>248</v>
       </c>
@@ -5428,7 +5468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>249</v>
       </c>
@@ -5439,7 +5479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>250</v>
       </c>
@@ -5450,7 +5490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>251</v>
       </c>
@@ -5461,7 +5501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -5472,7 +5512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -5483,7 +5523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>252</v>
       </c>
@@ -5494,7 +5534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>112</v>
       </c>
@@ -5505,7 +5545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>253</v>
       </c>
@@ -5516,7 +5556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>254</v>
       </c>
@@ -5527,7 +5567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>50</v>
       </c>
@@ -5538,7 +5578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -5549,7 +5589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>255</v>
       </c>
@@ -5560,7 +5600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -5571,7 +5611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>256</v>
       </c>
@@ -5582,7 +5622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -5593,7 +5633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>112</v>
       </c>
@@ -5604,7 +5644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -5615,7 +5655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>115</v>
       </c>
@@ -5626,7 +5666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>27</v>
       </c>
@@ -5637,7 +5677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>257</v>
       </c>
@@ -5648,7 +5688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>144</v>
       </c>
@@ -5659,7 +5699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>185</v>
       </c>
@@ -5670,7 +5710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>110</v>
       </c>
@@ -5681,7 +5721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>258</v>
       </c>
@@ -5692,7 +5732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>259</v>
       </c>
@@ -5703,7 +5743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>260</v>
       </c>
@@ -5714,7 +5754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>261</v>
       </c>
@@ -5725,7 +5765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>18</v>
       </c>
@@ -5736,7 +5776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>262</v>
       </c>
@@ -5747,7 +5787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>171</v>
       </c>
@@ -5758,7 +5798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>21</v>
       </c>
@@ -5769,7 +5809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>263</v>
       </c>
@@ -5780,7 +5820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>264</v>
       </c>
@@ -5791,7 +5831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>265</v>
       </c>
@@ -5802,7 +5842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>48</v>
       </c>
@@ -5813,7 +5853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>36</v>
       </c>
@@ -5824,7 +5864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>266</v>
       </c>
@@ -5835,7 +5875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>267</v>
       </c>
@@ -5846,7 +5886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>268</v>
       </c>
@@ -5857,7 +5897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>82</v>
       </c>
@@ -5868,7 +5908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>269</v>
       </c>
@@ -5879,7 +5919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>270</v>
       </c>
@@ -5890,7 +5930,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>271</v>
       </c>
@@ -5901,7 +5941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>272</v>
       </c>
@@ -5912,7 +5952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>273</v>
       </c>
@@ -5923,7 +5963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>274</v>
       </c>
@@ -5934,7 +5974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>275</v>
       </c>
@@ -5945,7 +5985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>276</v>
       </c>
@@ -5956,7 +5996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>277</v>
       </c>
@@ -5967,7 +6007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>13</v>
       </c>
@@ -5978,7 +6018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>278</v>
       </c>
@@ -5989,7 +6029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>279</v>
       </c>
@@ -6000,7 +6040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>280</v>
       </c>
@@ -6011,7 +6051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>281</v>
       </c>
@@ -6022,7 +6062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>282</v>
       </c>
@@ -6033,7 +6073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>283</v>
       </c>
@@ -6044,7 +6084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>284</v>
       </c>
@@ -6055,7 +6095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>285</v>
       </c>
@@ -6066,7 +6106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>286</v>
       </c>
@@ -6077,7 +6117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>287</v>
       </c>
@@ -6088,7 +6128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>288</v>
       </c>
@@ -6099,7 +6139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>48</v>
       </c>
@@ -6110,7 +6150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>289</v>
       </c>
@@ -6121,7 +6161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>47</v>
       </c>
@@ -6132,7 +6172,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>290</v>
       </c>
@@ -6143,7 +6183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>291</v>
       </c>
@@ -6154,7 +6194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>292</v>
       </c>
@@ -6165,7 +6205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>293</v>
       </c>
@@ -6176,7 +6216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>294</v>
       </c>
@@ -6187,7 +6227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>133</v>
       </c>
@@ -6198,7 +6238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>50</v>
       </c>
@@ -6209,7 +6249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>295</v>
       </c>
@@ -6220,7 +6260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>296</v>
       </c>
@@ -6231,7 +6271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>207</v>
       </c>
@@ -6242,7 +6282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>297</v>
       </c>
@@ -6253,7 +6293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>164</v>
       </c>
@@ -6264,7 +6304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>76</v>
       </c>
@@ -6275,7 +6315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>298</v>
       </c>
@@ -6286,7 +6326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>112</v>
       </c>
@@ -6297,7 +6337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>8</v>
       </c>
@@ -6308,7 +6348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>299</v>
       </c>
@@ -6319,7 +6359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>186</v>
       </c>
@@ -6330,7 +6370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>131</v>
       </c>
@@ -6341,7 +6381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>300</v>
       </c>
@@ -6352,7 +6392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>301</v>
       </c>
@@ -6363,7 +6403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>302</v>
       </c>
@@ -6374,7 +6414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>167</v>
       </c>
@@ -6385,7 +6425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>292</v>
       </c>
@@ -6396,7 +6436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>303</v>
       </c>
@@ -6407,7 +6447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>304</v>
       </c>
@@ -6418,7 +6458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>6</v>
       </c>
@@ -6429,7 +6469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>305</v>
       </c>
@@ -6440,7 +6480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -6451,7 +6491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>112</v>
       </c>
@@ -6462,7 +6502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>306</v>
       </c>
@@ -6473,7 +6513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>110</v>
       </c>
@@ -6484,7 +6524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>307</v>
       </c>
@@ -6495,7 +6535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>34</v>
       </c>
@@ -6506,7 +6546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>308</v>
       </c>
@@ -6517,7 +6557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>248</v>
       </c>
@@ -6528,7 +6568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>50</v>
       </c>
@@ -6539,7 +6579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>309</v>
       </c>
@@ -6550,7 +6590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>304</v>
       </c>
@@ -6561,7 +6601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>310</v>
       </c>
@@ -6572,7 +6612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>311</v>
       </c>
@@ -6583,7 +6623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>312</v>
       </c>
@@ -6594,7 +6634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>313</v>
       </c>
@@ -6605,7 +6645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>4</v>
       </c>
@@ -6616,7 +6656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>4</v>
       </c>
@@ -6627,7 +6667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>171</v>
       </c>
@@ -6638,7 +6678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>314</v>
       </c>
@@ -6649,7 +6689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>131</v>
       </c>
@@ -6660,7 +6700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>142</v>
       </c>
@@ -6671,7 +6711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>315</v>
       </c>
@@ -6682,7 +6722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>167</v>
       </c>
@@ -6693,7 +6733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>312</v>
       </c>
@@ -6704,7 +6744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>316</v>
       </c>
@@ -6715,7 +6755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>9</v>
       </c>
@@ -6726,7 +6766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>43</v>
       </c>
@@ -6737,7 +6777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>248</v>
       </c>
@@ -6748,7 +6788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>317</v>
       </c>
@@ -6759,7 +6799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>142</v>
       </c>
@@ -6770,7 +6810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>318</v>
       </c>
@@ -6781,7 +6821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>76</v>
       </c>
@@ -6792,7 +6832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>9</v>
       </c>
@@ -6803,7 +6843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>9</v>
       </c>
@@ -6814,7 +6854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>319</v>
       </c>
@@ -6825,7 +6865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>320</v>
       </c>
@@ -6836,7 +6876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>225</v>
       </c>
@@ -6847,7 +6887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>321</v>
       </c>
@@ -6858,7 +6898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>87</v>
       </c>
@@ -6869,7 +6909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>120</v>
       </c>
@@ -6880,7 +6920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>322</v>
       </c>
@@ -6891,7 +6931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>323</v>
       </c>
@@ -6902,7 +6942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>26</v>
       </c>
@@ -6913,7 +6953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>324</v>
       </c>
@@ -6924,7 +6964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>325</v>
       </c>
@@ -6935,7 +6975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>326</v>
       </c>
@@ -6946,7 +6986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>29</v>
       </c>
@@ -6957,7 +6997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>142</v>
       </c>
@@ -6968,7 +7008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>327</v>
       </c>
@@ -6979,7 +7019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>6</v>
       </c>
@@ -6990,7 +7030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>328</v>
       </c>
@@ -7001,7 +7041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>37</v>
       </c>
@@ -7012,7 +7052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>329</v>
       </c>
@@ -7023,7 +7063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>330</v>
       </c>
@@ -7034,7 +7074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>331</v>
       </c>
@@ -7045,7 +7085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>332</v>
       </c>
@@ -7056,7 +7096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>333</v>
       </c>
@@ -7067,7 +7107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>334</v>
       </c>
@@ -7078,7 +7118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>335</v>
       </c>
@@ -7089,7 +7129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>27</v>
       </c>
@@ -7100,7 +7140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>336</v>
       </c>
@@ -7111,7 +7151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>142</v>
       </c>
@@ -7122,7 +7162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>337</v>
       </c>
